--- a/raw_data/20200818_saline/20200818_Sensor0_Test_72.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_72.xlsx
@@ -1,1536 +1,1952 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFC4C96-287E-4C00-929C-27D84465B588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>63902.952879</v>
+        <v>63902.952878999997</v>
       </c>
       <c r="B2" s="1">
-        <v>17.750820</v>
+        <v>17.750820000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>899.172000</v>
+        <v>899.17200000000003</v>
       </c>
       <c r="D2" s="1">
-        <v>-196.968000</v>
+        <v>-196.96799999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>63913.694276</v>
+        <v>63913.694276000002</v>
       </c>
       <c r="G2" s="1">
-        <v>17.753804</v>
+        <v>17.753803999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>916.933000</v>
+        <v>916.93299999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-167.351000</v>
+        <v>-167.351</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>63924.159364</v>
+        <v>63924.159363999999</v>
       </c>
       <c r="L2" s="1">
-        <v>17.756711</v>
+        <v>17.756710999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>939.488000</v>
+        <v>939.48800000000006</v>
       </c>
       <c r="N2" s="1">
-        <v>-120.283000</v>
+        <v>-120.283</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>63934.117509</v>
+        <v>63934.117509000003</v>
       </c>
       <c r="Q2" s="1">
         <v>17.759477</v>
       </c>
       <c r="R2" s="1">
-        <v>946.318000</v>
+        <v>946.31799999999998</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.734000</v>
+        <v>-104.73399999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>63944.389158</v>
+        <v>63944.389157999998</v>
       </c>
       <c r="V2" s="1">
-        <v>17.762330</v>
+        <v>17.762329999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>952.987000</v>
+        <v>952.98699999999997</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.791800</v>
+        <v>-90.791799999999995</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>63954.820522</v>
+        <v>63954.820522000002</v>
       </c>
       <c r="AA2" s="1">
         <v>17.765228</v>
       </c>
       <c r="AB2" s="1">
-        <v>960.323000</v>
+        <v>960.32299999999998</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.856200</v>
+        <v>-80.856200000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>63965.068859</v>
+        <v>63965.068858999999</v>
       </c>
       <c r="AF2" s="1">
         <v>17.768075</v>
       </c>
       <c r="AG2" s="1">
-        <v>965.282000</v>
+        <v>965.28200000000004</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.258100</v>
+        <v>-80.258099999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>63975.200639</v>
+        <v>63975.200639000002</v>
       </c>
       <c r="AK2" s="1">
         <v>17.770889</v>
       </c>
       <c r="AL2" s="1">
-        <v>973.173000</v>
+        <v>973.173</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.720200</v>
+        <v>-87.720200000000006</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>63985.436576</v>
       </c>
       <c r="AP2" s="1">
-        <v>17.773732</v>
+        <v>17.773731999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>982.329000</v>
+        <v>982.32899999999995</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.417000</v>
+        <v>-102.417</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>63996.436850</v>
+        <v>63996.436849999998</v>
       </c>
       <c r="AU2" s="1">
         <v>17.776788</v>
       </c>
       <c r="AV2" s="1">
-        <v>993.741000</v>
+        <v>993.74099999999999</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.766000</v>
+        <v>-123.76600000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>64007.539331</v>
       </c>
       <c r="AZ2" s="1">
-        <v>17.779872</v>
+        <v>17.779872000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1003.360000</v>
+        <v>1003.36</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.333000</v>
+        <v>-142.333</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>64018.889748</v>
+        <v>64018.889748000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>17.783025</v>
+        <v>17.783024999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1048.810000</v>
+        <v>1048.81</v>
       </c>
       <c r="BG2" s="1">
-        <v>-226.324000</v>
+        <v>-226.32400000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>64029.528935</v>
+        <v>64029.528935000002</v>
       </c>
       <c r="BJ2" s="1">
-        <v>17.785980</v>
+        <v>17.785979999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1128.370000</v>
+        <v>1128.3699999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-360.479000</v>
+        <v>-360.47899999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>64040.645271</v>
+        <v>64040.645271000001</v>
       </c>
       <c r="BO2" s="1">
         <v>17.789068</v>
       </c>
       <c r="BP2" s="1">
-        <v>1259.180000</v>
+        <v>1259.18</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-567.032000</v>
+        <v>-567.03200000000004</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>64052.939664</v>
+        <v>64052.939663999998</v>
       </c>
       <c r="BT2" s="1">
-        <v>17.792483</v>
+        <v>17.792483000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1405.610000</v>
+        <v>1405.61</v>
       </c>
       <c r="BV2" s="1">
-        <v>-787.704000</v>
+        <v>-787.70399999999995</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>64064.015769</v>
+        <v>64064.015768999998</v>
       </c>
       <c r="BY2" s="1">
-        <v>17.795560</v>
+        <v>17.795559999999998</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1565.740000</v>
+        <v>1565.74</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1016.710000</v>
+        <v>-1016.71</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>64074.939658</v>
+        <v>64074.939658000003</v>
       </c>
       <c r="CD2" s="1">
-        <v>17.798594</v>
+        <v>17.798594000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1968.140000</v>
+        <v>1968.14</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1553.200000</v>
+        <v>-1553.2</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>63903.677036</v>
+        <v>63903.677036000001</v>
       </c>
       <c r="B3" s="1">
-        <v>17.751021</v>
+        <v>17.751021000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>899.025000</v>
+        <v>899.02499999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>-196.891000</v>
+        <v>-196.89099999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>63914.108896</v>
+        <v>63914.108895999998</v>
       </c>
       <c r="G3" s="1">
         <v>17.753919</v>
       </c>
       <c r="H3" s="1">
-        <v>916.479000</v>
+        <v>916.47900000000004</v>
       </c>
       <c r="I3" s="1">
-        <v>-166.899000</v>
+        <v>-166.899</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>63924.570544</v>
+        <v>63924.570544000002</v>
       </c>
       <c r="L3" s="1">
-        <v>17.756825</v>
+        <v>17.756824999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>939.503000</v>
+        <v>939.50300000000004</v>
       </c>
       <c r="N3" s="1">
-        <v>-120.439000</v>
+        <v>-120.43899999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>63934.475124</v>
+        <v>63934.475123999997</v>
       </c>
       <c r="Q3" s="1">
-        <v>17.759576</v>
+        <v>17.759575999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>946.319000</v>
+        <v>946.31899999999996</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.792000</v>
+        <v>-104.792</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>63944.803814</v>
+        <v>63944.803813999999</v>
       </c>
       <c r="V3" s="1">
-        <v>17.762446</v>
+        <v>17.762446000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>952.847000</v>
+        <v>952.84699999999998</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.782400</v>
+        <v>-90.782399999999996</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>63955.205448</v>
+        <v>63955.205448000001</v>
       </c>
       <c r="AA3" s="1">
         <v>17.765335</v>
       </c>
       <c r="AB3" s="1">
-        <v>960.272000</v>
+        <v>960.27200000000005</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.852500</v>
+        <v>-80.852500000000006</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>63965.504844</v>
+        <v>63965.504844000003</v>
       </c>
       <c r="AF3" s="1">
         <v>17.768196</v>
       </c>
       <c r="AG3" s="1">
-        <v>965.280000</v>
+        <v>965.28</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.213500</v>
+        <v>-80.213499999999996</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>63975.617277</v>
+        <v>63975.617276999998</v>
       </c>
       <c r="AK3" s="1">
-        <v>17.771005</v>
+        <v>17.771004999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>973.182000</v>
+        <v>973.18200000000002</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.718400</v>
+        <v>-87.718400000000003</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>63985.864625</v>
+        <v>63985.864625000002</v>
       </c>
       <c r="AP3" s="1">
-        <v>17.773851</v>
+        <v>17.773851000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>982.347000</v>
+        <v>982.34699999999998</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.429000</v>
+        <v>-102.429</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>63996.818771</v>
+        <v>63996.818770999998</v>
       </c>
       <c r="AU3" s="1">
-        <v>17.776894</v>
+        <v>17.776893999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>993.715000</v>
+        <v>993.71500000000003</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.777000</v>
+        <v>-123.777</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>64007.897939</v>
+        <v>64007.897939000002</v>
       </c>
       <c r="AZ3" s="1">
-        <v>17.779972</v>
+        <v>17.779972000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1003.350000</v>
+        <v>1003.35</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.334000</v>
+        <v>-142.334</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>64019.250340</v>
+        <v>64019.250339999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>17.783125</v>
+        <v>17.783124999999998</v>
       </c>
       <c r="BF3" s="1">
-        <v>1048.810000</v>
+        <v>1048.81</v>
       </c>
       <c r="BG3" s="1">
-        <v>-226.321000</v>
+        <v>-226.321</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>64030.280870</v>
+        <v>64030.280870000002</v>
       </c>
       <c r="BJ3" s="1">
         <v>17.786189</v>
       </c>
       <c r="BK3" s="1">
-        <v>1128.330000</v>
+        <v>1128.33</v>
       </c>
       <c r="BL3" s="1">
-        <v>-360.426000</v>
+        <v>-360.42599999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>64041.472630</v>
+        <v>64041.472629999997</v>
       </c>
       <c r="BO3" s="1">
-        <v>17.789298</v>
+        <v>17.789297999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1259.210000</v>
+        <v>1259.21</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-567.071000</v>
+        <v>-567.07100000000003</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>64053.381047</v>
+        <v>64053.381047000003</v>
       </c>
       <c r="BT3" s="1">
-        <v>17.792606</v>
+        <v>17.792605999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1405.540000</v>
+        <v>1405.54</v>
       </c>
       <c r="BV3" s="1">
-        <v>-787.653000</v>
+        <v>-787.65300000000002</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>64064.477081</v>
+        <v>64064.477080999997</v>
       </c>
       <c r="BY3" s="1">
-        <v>17.795688</v>
+        <v>17.795687999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1565.760000</v>
+        <v>1565.76</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1016.640000</v>
+        <v>-1016.64</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>64075.491737</v>
+        <v>64075.491736999997</v>
       </c>
       <c r="CD3" s="1">
         <v>17.798748</v>
       </c>
       <c r="CE3" s="1">
-        <v>1968.920000</v>
+        <v>1968.92</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1551.890000</v>
+        <v>-1551.89</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>63904.038125</v>
+        <v>63904.038124999999</v>
       </c>
       <c r="B4" s="1">
-        <v>17.751122</v>
+        <v>17.751121999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>899.229000</v>
+        <v>899.22900000000004</v>
       </c>
       <c r="D4" s="1">
-        <v>-196.958000</v>
+        <v>-196.958</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>63914.451921</v>
       </c>
       <c r="G4" s="1">
-        <v>17.754014</v>
+        <v>17.754014000000002</v>
       </c>
       <c r="H4" s="1">
-        <v>916.448000</v>
+        <v>916.44799999999998</v>
       </c>
       <c r="I4" s="1">
-        <v>-167.023000</v>
+        <v>-167.023</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>63924.918241</v>
+        <v>63924.918240999999</v>
       </c>
       <c r="L4" s="1">
-        <v>17.756922</v>
+        <v>17.756921999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>939.471000</v>
+        <v>939.471</v>
       </c>
       <c r="N4" s="1">
-        <v>-120.079000</v>
+        <v>-120.07899999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>63934.820339</v>
+        <v>63934.820338999998</v>
       </c>
       <c r="Q4" s="1">
-        <v>17.759672</v>
+        <v>17.759671999999998</v>
       </c>
       <c r="R4" s="1">
-        <v>946.297000</v>
+        <v>946.29700000000003</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.781000</v>
+        <v>-104.78100000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>63945.405002</v>
       </c>
       <c r="V4" s="1">
-        <v>17.762613</v>
+        <v>17.762613000000002</v>
       </c>
       <c r="W4" s="1">
-        <v>952.876000</v>
+        <v>952.87599999999998</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.689000</v>
+        <v>-90.688999999999993</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>63955.624041</v>
+        <v>63955.624041000003</v>
       </c>
       <c r="AA4" s="1">
-        <v>17.765451</v>
+        <v>17.765450999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>960.367000</v>
+        <v>960.36699999999996</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.965800</v>
+        <v>-80.965800000000002</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>63965.814513</v>
+        <v>63965.814512999998</v>
       </c>
       <c r="AF4" s="1">
-        <v>17.768282</v>
+        <v>17.768281999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>965.307000</v>
+        <v>965.30700000000002</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.234300</v>
+        <v>-80.234300000000005</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>63975.964973</v>
+        <v>63975.964973000002</v>
       </c>
       <c r="AK4" s="1">
-        <v>17.771101</v>
+        <v>17.771101000000002</v>
       </c>
       <c r="AL4" s="1">
-        <v>973.189000</v>
+        <v>973.18899999999996</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.731800</v>
+        <v>-87.731800000000007</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>63986.225251</v>
+        <v>63986.225251000003</v>
       </c>
       <c r="AP4" s="1">
         <v>17.773951</v>
       </c>
       <c r="AQ4" s="1">
-        <v>982.336000</v>
+        <v>982.33600000000001</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.423000</v>
+        <v>-102.423</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>63997.185809</v>
+        <v>63997.185809000002</v>
       </c>
       <c r="AU4" s="1">
         <v>17.776996</v>
       </c>
       <c r="AV4" s="1">
-        <v>993.744000</v>
+        <v>993.74400000000003</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.784000</v>
+        <v>-123.78400000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>64008.255522</v>
+        <v>64008.255521999999</v>
       </c>
       <c r="AZ4" s="1">
         <v>17.780071</v>
       </c>
       <c r="BA4" s="1">
-        <v>1003.370000</v>
+        <v>1003.37</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.350000</v>
+        <v>-142.35</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>64019.975988</v>
+        <v>64019.975987999998</v>
       </c>
       <c r="BE4" s="1">
         <v>17.783327</v>
       </c>
       <c r="BF4" s="1">
-        <v>1048.790000</v>
+        <v>1048.79</v>
       </c>
       <c r="BG4" s="1">
-        <v>-226.317000</v>
+        <v>-226.31700000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>64030.684165</v>
+        <v>64030.684164999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>17.786301</v>
+        <v>17.786301000000002</v>
       </c>
       <c r="BK4" s="1">
-        <v>1128.340000</v>
+        <v>1128.3399999999999</v>
       </c>
       <c r="BL4" s="1">
-        <v>-360.505000</v>
+        <v>-360.505</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>64041.891253</v>
+        <v>64041.891253000002</v>
       </c>
       <c r="BO4" s="1">
-        <v>17.789414</v>
+        <v>17.789414000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1259.240000</v>
+        <v>1259.24</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-567.082000</v>
+        <v>-567.08199999999999</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>64053.797190</v>
+        <v>64053.797189999997</v>
       </c>
       <c r="BT4" s="1">
         <v>17.792721</v>
       </c>
       <c r="BU4" s="1">
-        <v>1405.410000</v>
+        <v>1405.41</v>
       </c>
       <c r="BV4" s="1">
-        <v>-787.690000</v>
+        <v>-787.69</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>64065.238497</v>
+        <v>64065.238496999998</v>
       </c>
       <c r="BY4" s="1">
-        <v>17.795900</v>
+        <v>17.7959</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1565.660000</v>
+        <v>1565.66</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1016.740000</v>
+        <v>-1016.74</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>64076.327996</v>
       </c>
       <c r="CD4" s="1">
-        <v>17.798980</v>
+        <v>17.79898</v>
       </c>
       <c r="CE4" s="1">
-        <v>1967.800000</v>
+        <v>1967.8</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1551.350000</v>
+        <v>-1551.35</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>63904.383837</v>
+        <v>63904.383837000001</v>
       </c>
       <c r="B5" s="1">
-        <v>17.751218</v>
+        <v>17.751218000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>899.144000</v>
+        <v>899.14400000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-196.918000</v>
+        <v>-196.91800000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>63914.799327</v>
+        <v>63914.799327000001</v>
       </c>
       <c r="G5" s="1">
-        <v>17.754111</v>
+        <v>17.754111000000002</v>
       </c>
       <c r="H5" s="1">
-        <v>916.407000</v>
+        <v>916.40700000000004</v>
       </c>
       <c r="I5" s="1">
-        <v>-167.478000</v>
+        <v>-167.47800000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>63925.263953</v>
+        <v>63925.263953000001</v>
       </c>
       <c r="L5" s="1">
-        <v>17.757018</v>
+        <v>17.757017999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>939.631000</v>
+        <v>939.63099999999997</v>
       </c>
       <c r="N5" s="1">
-        <v>-120.139000</v>
+        <v>-120.139</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>63935.241939</v>
       </c>
       <c r="Q5" s="1">
-        <v>17.759789</v>
+        <v>17.759789000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>946.305000</v>
+        <v>946.30499999999995</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.737000</v>
+        <v>-104.73699999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>63945.789861</v>
+        <v>63945.789860999997</v>
       </c>
       <c r="V5" s="1">
-        <v>17.762719</v>
+        <v>17.762719000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>953.029000</v>
+        <v>953.029</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.787900</v>
+        <v>-90.787899999999993</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>63955.921175</v>
+        <v>63955.921175000003</v>
       </c>
       <c r="AA5" s="1">
-        <v>17.765534</v>
+        <v>17.765533999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>960.326000</v>
+        <v>960.32600000000002</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.799400</v>
+        <v>-80.799400000000006</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>63966.155595</v>
+        <v>63966.155594999997</v>
       </c>
       <c r="AF5" s="1">
-        <v>17.768377</v>
+        <v>17.768377000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>965.223000</v>
+        <v>965.22299999999996</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.257900</v>
+        <v>-80.257900000000006</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>63976.314653</v>
+        <v>63976.314653000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>17.771199</v>
+        <v>17.771198999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>973.166000</v>
+        <v>973.16600000000005</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.719400</v>
+        <v>-87.719399999999993</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>63986.584320</v>
+        <v>63986.584320000002</v>
       </c>
       <c r="AP5" s="1">
         <v>17.774051</v>
       </c>
       <c r="AQ5" s="1">
-        <v>982.355000</v>
+        <v>982.35500000000002</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.410000</v>
+        <v>-102.41</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>63997.912981</v>
+        <v>63997.912981000001</v>
       </c>
       <c r="AU5" s="1">
-        <v>17.777198</v>
+        <v>17.777197999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>993.728000</v>
+        <v>993.72799999999995</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.756000</v>
+        <v>-123.756</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>64008.980674</v>
+        <v>64008.980673999999</v>
       </c>
       <c r="AZ5" s="1">
         <v>17.780272</v>
       </c>
       <c r="BA5" s="1">
-        <v>1003.360000</v>
+        <v>1003.36</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.347000</v>
+        <v>-142.34700000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>64020.362867</v>
+        <v>64020.362867000003</v>
       </c>
       <c r="BE5" s="1">
         <v>17.783434</v>
       </c>
       <c r="BF5" s="1">
-        <v>1048.810000</v>
+        <v>1048.81</v>
       </c>
       <c r="BG5" s="1">
-        <v>-226.326000</v>
+        <v>-226.32599999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>64031.060116</v>
+        <v>64031.060116000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>17.786406</v>
+        <v>17.786405999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1128.320000</v>
+        <v>1128.32</v>
       </c>
       <c r="BL5" s="1">
-        <v>-360.502000</v>
+        <v>-360.50200000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>64042.288518</v>
+        <v>64042.288518000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>17.789525</v>
+        <v>17.789525000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1259.210000</v>
+        <v>1259.21</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-567.140000</v>
+        <v>-567.14</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>64054.524821</v>
+        <v>64054.524820999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>17.792924</v>
+        <v>17.792923999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1405.310000</v>
+        <v>1405.31</v>
       </c>
       <c r="BV5" s="1">
-        <v>-787.547000</v>
+        <v>-787.54700000000003</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>64065.376327</v>
+        <v>64065.376326999998</v>
       </c>
       <c r="BY5" s="1">
         <v>17.795938</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1565.720000</v>
+        <v>1565.72</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1016.740000</v>
+        <v>-1016.74</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>64076.524873</v>
+        <v>64076.524873000002</v>
       </c>
       <c r="CD5" s="1">
         <v>17.799035</v>
       </c>
       <c r="CE5" s="1">
-        <v>1967.350000</v>
+        <v>1967.35</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1552.870000</v>
+        <v>-1552.87</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>63904.725083</v>
+        <v>63904.725082999998</v>
       </c>
       <c r="B6" s="1">
         <v>17.751313</v>
       </c>
       <c r="C6" s="1">
-        <v>899.148000</v>
+        <v>899.14800000000002</v>
       </c>
       <c r="D6" s="1">
-        <v>-196.944000</v>
+        <v>-196.94399999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>63915.222445</v>
+        <v>63915.222444999999</v>
       </c>
       <c r="G6" s="1">
-        <v>17.754228</v>
+        <v>17.754228000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>916.439000</v>
+        <v>916.43899999999996</v>
       </c>
       <c r="I6" s="1">
-        <v>-167.087000</v>
+        <v>-167.08699999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>63925.679569</v>
@@ -1539,542 +1955,542 @@
         <v>17.757133</v>
       </c>
       <c r="M6" s="1">
-        <v>939.537000</v>
+        <v>939.53700000000003</v>
       </c>
       <c r="N6" s="1">
-        <v>-120.286000</v>
+        <v>-120.286</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>63935.521220</v>
+        <v>63935.521220000002</v>
       </c>
       <c r="Q6" s="1">
         <v>17.759867</v>
       </c>
       <c r="R6" s="1">
-        <v>946.284000</v>
+        <v>946.28399999999999</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.761000</v>
+        <v>-104.761</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>63946.139044</v>
+        <v>63946.139044000003</v>
       </c>
       <c r="V6" s="1">
-        <v>17.762816</v>
+        <v>17.762816000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>953.016000</v>
+        <v>953.01599999999996</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.877300</v>
+        <v>-90.877300000000005</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>63956.272840</v>
+        <v>63956.272839999998</v>
       </c>
       <c r="AA6" s="1">
-        <v>17.765631</v>
+        <v>17.765630999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>960.207000</v>
+        <v>960.20699999999999</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.795400</v>
+        <v>-80.795400000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>63966.500809</v>
+        <v>63966.500808999997</v>
       </c>
       <c r="AF6" s="1">
-        <v>17.768472</v>
+        <v>17.768471999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>965.273000</v>
+        <v>965.27300000000002</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.226400</v>
+        <v>-80.226399999999998</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>63976.662968</v>
+        <v>63976.662967999997</v>
       </c>
       <c r="AK6" s="1">
-        <v>17.771295</v>
+        <v>17.771294999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>973.163000</v>
+        <v>973.16300000000001</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.678400</v>
+        <v>-87.678399999999996</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>63987.304015</v>
+        <v>63987.304015000002</v>
       </c>
       <c r="AP6" s="1">
         <v>17.774251</v>
       </c>
       <c r="AQ6" s="1">
-        <v>982.342000</v>
+        <v>982.34199999999998</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.428000</v>
+        <v>-102.428</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>63998.303827</v>
+        <v>63998.303827000003</v>
       </c>
       <c r="AU6" s="1">
         <v>17.777307</v>
       </c>
       <c r="AV6" s="1">
-        <v>993.718000</v>
+        <v>993.71799999999996</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.760000</v>
+        <v>-123.76</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>64009.356642</v>
+        <v>64009.356641999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>17.780377</v>
+        <v>17.780377000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1003.340000</v>
+        <v>1003.34</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.341000</v>
+        <v>-142.34100000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>64020.725443</v>
+        <v>64020.725443000003</v>
       </c>
       <c r="BE6" s="1">
-        <v>17.783535</v>
+        <v>17.783535000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1048.790000</v>
+        <v>1048.79</v>
       </c>
       <c r="BG6" s="1">
-        <v>-226.325000</v>
+        <v>-226.32499999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>64031.738641</v>
+        <v>64031.738641000004</v>
       </c>
       <c r="BJ6" s="1">
-        <v>17.786594</v>
+        <v>17.786594000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1128.340000</v>
+        <v>1128.3399999999999</v>
       </c>
       <c r="BL6" s="1">
-        <v>-360.457000</v>
+        <v>-360.45699999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>64043.030533</v>
+        <v>64043.030532999997</v>
       </c>
       <c r="BO6" s="1">
         <v>17.789731</v>
       </c>
       <c r="BP6" s="1">
-        <v>1259.270000</v>
+        <v>1259.27</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-567.096000</v>
+        <v>-567.096</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>64054.642373</v>
+        <v>64054.642373000002</v>
       </c>
       <c r="BT6" s="1">
         <v>17.792956</v>
       </c>
       <c r="BU6" s="1">
-        <v>1405.210000</v>
+        <v>1405.21</v>
       </c>
       <c r="BV6" s="1">
-        <v>-787.494000</v>
+        <v>-787.49400000000003</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>64065.796932</v>
+        <v>64065.796931999997</v>
       </c>
       <c r="BY6" s="1">
-        <v>17.796055</v>
+        <v>17.796054999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1565.610000</v>
+        <v>1565.61</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1016.630000</v>
+        <v>-1016.63</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>64077.045703</v>
+        <v>64077.045703000003</v>
       </c>
       <c r="CD6" s="1">
-        <v>17.799179</v>
+        <v>17.799178999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1966.800000</v>
+        <v>1966.8</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1552.350000</v>
+        <v>-1552.35</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>63905.149195</v>
+        <v>63905.149194999998</v>
       </c>
       <c r="B7" s="1">
-        <v>17.751430</v>
+        <v>17.751429999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>899.194000</v>
+        <v>899.19399999999996</v>
       </c>
       <c r="D7" s="1">
-        <v>-196.943000</v>
+        <v>-196.94300000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>63915.491772</v>
+        <v>63915.491772000001</v>
       </c>
       <c r="G7" s="1">
         <v>17.754303</v>
       </c>
       <c r="H7" s="1">
-        <v>916.534000</v>
+        <v>916.53399999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-167.680000</v>
+        <v>-167.68</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>63925.974687</v>
+        <v>63925.974687000002</v>
       </c>
       <c r="L7" s="1">
-        <v>17.757215</v>
+        <v>17.757214999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>939.591000</v>
+        <v>939.59100000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-120.168000</v>
+        <v>-120.16800000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>63935.866710</v>
+        <v>63935.866710000002</v>
       </c>
       <c r="Q7" s="1">
-        <v>17.759963</v>
+        <v>17.759962999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>946.311000</v>
+        <v>946.31100000000004</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.729000</v>
+        <v>-104.729</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>63946.482456</v>
+        <v>63946.482455999998</v>
       </c>
       <c r="V7" s="1">
         <v>17.762912</v>
       </c>
       <c r="W7" s="1">
-        <v>952.895000</v>
+        <v>952.89499999999998</v>
       </c>
       <c r="X7" s="1">
-        <v>-90.872400</v>
+        <v>-90.872399999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>63956.619047</v>
       </c>
       <c r="AA7" s="1">
-        <v>17.765728</v>
+        <v>17.765727999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>960.335000</v>
+        <v>960.33500000000004</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.918200</v>
+        <v>-80.918199999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>63967.186313</v>
+        <v>63967.186312999998</v>
       </c>
       <c r="AF7" s="1">
         <v>17.768663</v>
       </c>
       <c r="AG7" s="1">
-        <v>965.264000</v>
+        <v>965.26400000000001</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.145300</v>
+        <v>-80.145300000000006</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>63977.359724</v>
+        <v>63977.359724000002</v>
       </c>
       <c r="AK7" s="1">
-        <v>17.771489</v>
+        <v>17.771488999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>973.192000</v>
+        <v>973.19200000000001</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.712800</v>
+        <v>-87.712800000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>63987.665634</v>
+        <v>63987.665633999997</v>
       </c>
       <c r="AP7" s="1">
         <v>17.774352</v>
       </c>
       <c r="AQ7" s="1">
-        <v>982.346000</v>
+        <v>982.346</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.435000</v>
+        <v>-102.435</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>63998.668847</v>
+        <v>63998.668847000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>17.777408</v>
+        <v>17.777408000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>993.707000</v>
+        <v>993.70699999999999</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.763000</v>
+        <v>-123.76300000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>64009.736080</v>
+        <v>64009.736080000002</v>
       </c>
       <c r="AZ7" s="1">
-        <v>17.780482</v>
+        <v>17.780481999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1003.350000</v>
+        <v>1003.35</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.321000</v>
+        <v>-142.321</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>64021.395042</v>
+        <v>64021.395041999996</v>
       </c>
       <c r="BE7" s="1">
         <v>17.783721</v>
       </c>
       <c r="BF7" s="1">
-        <v>1048.800000</v>
+        <v>1048.8</v>
       </c>
       <c r="BG7" s="1">
-        <v>-226.327000</v>
+        <v>-226.327</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>64031.849220</v>
+        <v>64031.849219999996</v>
       </c>
       <c r="BJ7" s="1">
-        <v>17.786625</v>
+        <v>17.786625000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1128.370000</v>
+        <v>1128.3699999999999</v>
       </c>
       <c r="BL7" s="1">
-        <v>-360.505000</v>
+        <v>-360.505</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>64043.524548</v>
+        <v>64043.524548000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>17.789868</v>
+        <v>17.789867999999998</v>
       </c>
       <c r="BP7" s="1">
-        <v>1259.210000</v>
+        <v>1259.21</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-567.096000</v>
+        <v>-567.096</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>64055.053095</v>
+        <v>64055.053095000003</v>
       </c>
       <c r="BT7" s="1">
-        <v>17.793070</v>
+        <v>17.79307</v>
       </c>
       <c r="BU7" s="1">
-        <v>1405.190000</v>
+        <v>1405.19</v>
       </c>
       <c r="BV7" s="1">
-        <v>-787.489000</v>
+        <v>-787.48900000000003</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>64066.222502</v>
+        <v>64066.222501999997</v>
       </c>
       <c r="BY7" s="1">
         <v>17.796173</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1565.700000</v>
+        <v>1565.7</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1016.760000</v>
+        <v>-1016.76</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>64077.597255</v>
+        <v>64077.597255000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>17.799333</v>
+        <v>17.799333000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1967.770000</v>
+        <v>1967.77</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1551.500000</v>
+        <v>-1551.5</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>63905.426922</v>
+        <v>63905.426921999999</v>
       </c>
       <c r="B8" s="1">
         <v>17.751507</v>
       </c>
       <c r="C8" s="1">
-        <v>899.050000</v>
+        <v>899.05</v>
       </c>
       <c r="D8" s="1">
-        <v>-196.964000</v>
+        <v>-196.964</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>63915.836492</v>
+        <v>63915.836492000002</v>
       </c>
       <c r="G8" s="1">
-        <v>17.754399</v>
+        <v>17.754398999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>916.280000</v>
+        <v>916.28</v>
       </c>
       <c r="I8" s="1">
-        <v>-167.299000</v>
+        <v>-167.29900000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>63926.319407</v>
+        <v>63926.319407000003</v>
       </c>
       <c r="L8" s="1">
-        <v>17.757311</v>
+        <v>17.757311000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>939.526000</v>
+        <v>939.52599999999995</v>
       </c>
       <c r="N8" s="1">
-        <v>-120.255000</v>
+        <v>-120.255</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>63936.218562</v>
+        <v>63936.218562000002</v>
       </c>
       <c r="Q8" s="1">
         <v>17.760061</v>
       </c>
       <c r="R8" s="1">
-        <v>946.323000</v>
+        <v>946.32299999999998</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.751000</v>
+        <v>-104.751</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>63947.168244</v>
@@ -2083,405 +2499,405 @@
         <v>17.763102</v>
       </c>
       <c r="W8" s="1">
-        <v>952.896000</v>
+        <v>952.89599999999996</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.656500</v>
+        <v>-90.656499999999994</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>63957.316917</v>
+        <v>63957.316916999996</v>
       </c>
       <c r="AA8" s="1">
-        <v>17.765921</v>
+        <v>17.765920999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>960.340000</v>
+        <v>960.34</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.883000</v>
+        <v>-80.882999999999996</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>63967.531497</v>
+        <v>63967.531497000004</v>
       </c>
       <c r="AF8" s="1">
-        <v>17.768759</v>
+        <v>17.768758999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>965.258000</v>
+        <v>965.25800000000004</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.231100</v>
+        <v>-80.231099999999998</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>63977.707418</v>
+        <v>63977.707417999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>17.771585</v>
+        <v>17.771585000000002</v>
       </c>
       <c r="AL8" s="1">
-        <v>973.196000</v>
+        <v>973.19600000000003</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.694500</v>
+        <v>-87.694500000000005</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>63988.027181</v>
+        <v>63988.027180999998</v>
       </c>
       <c r="AP8" s="1">
         <v>17.774452</v>
       </c>
       <c r="AQ8" s="1">
-        <v>982.332000</v>
+        <v>982.33199999999999</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.422000</v>
+        <v>-102.422</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>63999.352366</v>
+        <v>63999.352365999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>17.777598</v>
+        <v>17.777598000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>993.710000</v>
+        <v>993.71</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.765000</v>
+        <v>-123.765</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>64010.410641</v>
+        <v>64010.410641000002</v>
       </c>
       <c r="AZ8" s="1">
-        <v>17.780670</v>
+        <v>17.780670000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1003.360000</v>
+        <v>1003.36</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.337000</v>
+        <v>-142.33699999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>64021.842432</v>
+        <v>64021.842431999998</v>
       </c>
       <c r="BE8" s="1">
-        <v>17.783845</v>
+        <v>17.783844999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1048.780000</v>
+        <v>1048.78</v>
       </c>
       <c r="BG8" s="1">
-        <v>-226.322000</v>
+        <v>-226.322</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>64032.210818</v>
       </c>
       <c r="BJ8" s="1">
-        <v>17.786725</v>
+        <v>17.786725000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1128.290000</v>
+        <v>1128.29</v>
       </c>
       <c r="BL8" s="1">
-        <v>-360.496000</v>
+        <v>-360.49599999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>64043.944660</v>
+        <v>64043.944660000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>17.789985</v>
+        <v>17.789985000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1259.180000</v>
+        <v>1259.18</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-567.112000</v>
+        <v>-567.11199999999997</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>64055.483093</v>
+        <v>64055.483093000003</v>
       </c>
       <c r="BT8" s="1">
-        <v>17.793190</v>
+        <v>17.793189999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1405.270000</v>
+        <v>1405.27</v>
       </c>
       <c r="BV8" s="1">
-        <v>-787.284000</v>
+        <v>-787.28399999999999</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>64066.653524</v>
+        <v>64066.653524000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>17.796293</v>
+        <v>17.796292999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1565.700000</v>
+        <v>1565.7</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1016.670000</v>
+        <v>-1016.67</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>64078.126454</v>
+        <v>64078.126453999997</v>
       </c>
       <c r="CD8" s="1">
-        <v>17.799480</v>
+        <v>17.799479999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1967.330000</v>
+        <v>1967.33</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1552.660000</v>
+        <v>-1552.66</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>63905.769339</v>
+        <v>63905.769338999999</v>
       </c>
       <c r="B9" s="1">
-        <v>17.751603</v>
+        <v>17.751602999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>898.963000</v>
+        <v>898.96299999999997</v>
       </c>
       <c r="D9" s="1">
-        <v>-196.951000</v>
+        <v>-196.95099999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>63916.179196</v>
+        <v>63916.179195999997</v>
       </c>
       <c r="G9" s="1">
-        <v>17.754494</v>
+        <v>17.754494000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>916.820000</v>
+        <v>916.82</v>
       </c>
       <c r="I9" s="1">
-        <v>-167.330000</v>
+        <v>-167.33</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>63926.664622</v>
+        <v>63926.664621999997</v>
       </c>
       <c r="L9" s="1">
-        <v>17.757407</v>
+        <v>17.757407000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>939.646000</v>
+        <v>939.64599999999996</v>
       </c>
       <c r="N9" s="1">
-        <v>-120.341000</v>
+        <v>-120.34099999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>63936.913985</v>
+        <v>63936.913984999999</v>
       </c>
       <c r="Q9" s="1">
         <v>17.760254</v>
       </c>
       <c r="R9" s="1">
-        <v>946.295000</v>
+        <v>946.29499999999996</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.795000</v>
+        <v>-104.795</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>63947.512962</v>
+        <v>63947.512962000001</v>
       </c>
       <c r="V9" s="1">
-        <v>17.763198</v>
+        <v>17.763197999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>953.002000</v>
+        <v>953.00199999999995</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.645100</v>
+        <v>-90.645099999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>63957.664581</v>
+        <v>63957.664580999997</v>
       </c>
       <c r="AA9" s="1">
-        <v>17.766018</v>
+        <v>17.766017999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>960.316000</v>
+        <v>960.31600000000003</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.857600</v>
+        <v>-80.857600000000005</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>63967.874232</v>
+        <v>63967.874232000002</v>
       </c>
       <c r="AF9" s="1">
-        <v>17.768854</v>
+        <v>17.768854000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>965.231000</v>
+        <v>965.23099999999999</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.227600</v>
+        <v>-80.227599999999995</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>63978.053626</v>
+        <v>63978.053626000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>17.771682</v>
+        <v>17.771681999999998</v>
       </c>
       <c r="AL9" s="1">
-        <v>973.167000</v>
+        <v>973.16700000000003</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.693700</v>
+        <v>-87.693700000000007</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>63988.707693</v>
+        <v>63988.707692999997</v>
       </c>
       <c r="AP9" s="1">
-        <v>17.774641</v>
+        <v>17.774640999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>982.321000</v>
+        <v>982.32100000000003</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.415000</v>
+        <v>-102.41500000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>63999.762029</v>
+        <v>63999.762028999998</v>
       </c>
       <c r="AU9" s="1">
-        <v>17.777712</v>
+        <v>17.777712000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>993.725000</v>
+        <v>993.72500000000002</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.786000</v>
+        <v>-123.786</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>64010.819840</v>
+        <v>64010.819839999996</v>
       </c>
       <c r="AZ9" s="1">
         <v>17.780783</v>
       </c>
       <c r="BA9" s="1">
-        <v>1003.340000</v>
+        <v>1003.34</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.316000</v>
+        <v>-142.316</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>64022.202066</v>
+        <v>64022.202065999998</v>
       </c>
       <c r="BE9" s="1">
-        <v>17.783945</v>
+        <v>17.783944999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1048.790000</v>
+        <v>1048.79</v>
       </c>
       <c r="BG9" s="1">
-        <v>-226.327000</v>
+        <v>-226.327</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>64032.587764</v>
+        <v>64032.587764000004</v>
       </c>
       <c r="BJ9" s="1">
-        <v>17.786830</v>
+        <v>17.786829999999998</v>
       </c>
       <c r="BK9" s="1">
-        <v>1128.360000</v>
+        <v>1128.3599999999999</v>
       </c>
       <c r="BL9" s="1">
-        <v>-360.461000</v>
+        <v>-360.46100000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>64044.344434</v>
+        <v>64044.344433999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>17.790096</v>
+        <v>17.790095999999998</v>
       </c>
       <c r="BP9" s="1">
-        <v>1259.200000</v>
+        <v>1259.2</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-567.101000</v>
+        <v>-567.101</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>64055.907711</v>
@@ -2490,105 +2906,105 @@
         <v>17.793308</v>
       </c>
       <c r="BU9" s="1">
-        <v>1405.160000</v>
+        <v>1405.16</v>
       </c>
       <c r="BV9" s="1">
-        <v>-787.187000</v>
+        <v>-787.18700000000001</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>64067.087494</v>
+        <v>64067.087493999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>17.796413</v>
+        <v>17.796413000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1565.500000</v>
+        <v>1565.5</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1016.650000</v>
+        <v>-1016.65</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>64078.643781</v>
+        <v>64078.643780999999</v>
       </c>
       <c r="CD9" s="1">
         <v>17.799623</v>
       </c>
       <c r="CE9" s="1">
-        <v>1966.840000</v>
+        <v>1966.84</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1552.300000</v>
+        <v>-1552.3</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>63906.108950</v>
+        <v>63906.108950000002</v>
       </c>
       <c r="B10" s="1">
         <v>17.751697</v>
       </c>
       <c r="C10" s="1">
-        <v>899.068000</v>
+        <v>899.06799999999998</v>
       </c>
       <c r="D10" s="1">
-        <v>-196.870000</v>
+        <v>-196.87</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>63916.867643</v>
+        <v>63916.867642999998</v>
       </c>
       <c r="G10" s="1">
-        <v>17.754685</v>
+        <v>17.754684999999998</v>
       </c>
       <c r="H10" s="1">
-        <v>916.467000</v>
+        <v>916.46699999999998</v>
       </c>
       <c r="I10" s="1">
-        <v>-167.536000</v>
+        <v>-167.536</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>63927.358029</v>
+        <v>63927.358029000003</v>
       </c>
       <c r="L10" s="1">
-        <v>17.757599</v>
+        <v>17.757598999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>939.499000</v>
+        <v>939.49900000000002</v>
       </c>
       <c r="N10" s="1">
-        <v>-120.380000</v>
+        <v>-120.38</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>63937.259200</v>
+        <v>63937.2592</v>
       </c>
       <c r="Q10" s="1">
-        <v>17.760350</v>
+        <v>17.760349999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>946.309000</v>
+        <v>946.30899999999997</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.777000</v>
+        <v>-104.777</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>63947.852754</v>
@@ -2597,692 +3013,692 @@
         <v>17.763292</v>
       </c>
       <c r="W10" s="1">
-        <v>952.920000</v>
+        <v>952.92</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.803900</v>
+        <v>-90.803899999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>63958.016246</v>
+        <v>63958.016245999999</v>
       </c>
       <c r="AA10" s="1">
         <v>17.766116</v>
       </c>
       <c r="AB10" s="1">
-        <v>960.277000</v>
+        <v>960.27700000000004</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.878700</v>
+        <v>-80.878699999999995</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>63968.527464</v>
+        <v>63968.527463999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>17.769035</v>
+        <v>17.769034999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>965.250000</v>
+        <v>965.25</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.277200</v>
+        <v>-80.277199999999993</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>63978.564521</v>
       </c>
       <c r="AK10" s="1">
-        <v>17.771823</v>
+        <v>17.771823000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>973.191000</v>
+        <v>973.19100000000003</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.730100</v>
+        <v>-87.730099999999993</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>63989.130283</v>
+        <v>63989.130282999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>17.774758</v>
+        <v>17.774757999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>982.326000</v>
+        <v>982.32600000000002</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.407000</v>
+        <v>-102.407</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>64000.125629</v>
+        <v>64000.125629000002</v>
       </c>
       <c r="AU10" s="1">
-        <v>17.777813</v>
+        <v>17.777812999999998</v>
       </c>
       <c r="AV10" s="1">
-        <v>993.729000</v>
+        <v>993.72900000000004</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.764000</v>
+        <v>-123.764</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>64011.195808</v>
+        <v>64011.195807999997</v>
       </c>
       <c r="AZ10" s="1">
-        <v>17.780888</v>
+        <v>17.780888000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1003.350000</v>
+        <v>1003.35</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.317000</v>
+        <v>-142.31700000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>64022.565599</v>
+        <v>64022.565599000001</v>
       </c>
       <c r="BE10" s="1">
         <v>17.784046</v>
       </c>
       <c r="BF10" s="1">
-        <v>1048.790000</v>
+        <v>1048.79</v>
       </c>
       <c r="BG10" s="1">
-        <v>-226.331000</v>
+        <v>-226.33099999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>64033.004402</v>
+        <v>64033.004401999999</v>
       </c>
       <c r="BJ10" s="1">
         <v>17.786946</v>
       </c>
       <c r="BK10" s="1">
-        <v>1128.360000</v>
+        <v>1128.3599999999999</v>
       </c>
       <c r="BL10" s="1">
-        <v>-360.497000</v>
+        <v>-360.49700000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>64044.784387</v>
       </c>
       <c r="BO10" s="1">
-        <v>17.790218</v>
+        <v>17.790217999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1259.210000</v>
+        <v>1259.21</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-567.116000</v>
+        <v>-567.11599999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>64056.311443</v>
+        <v>64056.311442999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>17.793420</v>
+        <v>17.793420000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1405.220000</v>
+        <v>1405.22</v>
       </c>
       <c r="BV10" s="1">
-        <v>-787.083000</v>
+        <v>-787.08299999999997</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>64067.508132</v>
+        <v>64067.508132000003</v>
       </c>
       <c r="BY10" s="1">
-        <v>17.796530</v>
+        <v>17.796530000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1565.530000</v>
+        <v>1565.53</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1016.720000</v>
+        <v>-1016.72</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>64079.206748</v>
+        <v>64079.206747999997</v>
       </c>
       <c r="CD10" s="1">
-        <v>17.799780</v>
+        <v>17.799779999999998</v>
       </c>
       <c r="CE10" s="1">
-        <v>1968.080000</v>
+        <v>1968.08</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1551.260000</v>
+        <v>-1551.26</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>63906.793898</v>
+        <v>63906.793898000004</v>
       </c>
       <c r="B11" s="1">
         <v>17.751887</v>
       </c>
       <c r="C11" s="1">
-        <v>899.043000</v>
+        <v>899.04300000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-196.880000</v>
+        <v>-196.88</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>63917.218315</v>
+        <v>63917.218314999998</v>
       </c>
       <c r="G11" s="1">
         <v>17.754783</v>
       </c>
       <c r="H11" s="1">
-        <v>916.619000</v>
+        <v>916.61900000000003</v>
       </c>
       <c r="I11" s="1">
-        <v>-167.597000</v>
+        <v>-167.59700000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>63927.704734</v>
+        <v>63927.704733999999</v>
       </c>
       <c r="L11" s="1">
-        <v>17.757696</v>
+        <v>17.757695999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>939.603000</v>
+        <v>939.60299999999995</v>
       </c>
       <c r="N11" s="1">
-        <v>-120.280000</v>
+        <v>-120.28</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>63937.613808</v>
+        <v>63937.613808000002</v>
       </c>
       <c r="Q11" s="1">
         <v>17.760448</v>
       </c>
       <c r="R11" s="1">
-        <v>946.298000</v>
+        <v>946.298</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.751000</v>
+        <v>-104.751</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>63948.515609</v>
+        <v>63948.515609000002</v>
       </c>
       <c r="V11" s="1">
-        <v>17.763477</v>
+        <v>17.763477000000002</v>
       </c>
       <c r="W11" s="1">
-        <v>952.891000</v>
+        <v>952.89099999999996</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.714400</v>
+        <v>-90.714399999999998</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>63958.675923</v>
+        <v>63958.675923000003</v>
       </c>
       <c r="AA11" s="1">
         <v>17.766299</v>
       </c>
       <c r="AB11" s="1">
-        <v>960.301000</v>
+        <v>960.30100000000004</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.914800</v>
+        <v>-80.9148</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>63968.904459</v>
+        <v>63968.904458999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>17.769140</v>
+        <v>17.76914</v>
       </c>
       <c r="AG11" s="1">
-        <v>965.222000</v>
+        <v>965.22199999999998</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.250500</v>
+        <v>-80.250500000000002</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>63978.751498</v>
+        <v>63978.751497999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>17.771875</v>
+        <v>17.771875000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>973.175000</v>
+        <v>973.17499999999995</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.740700</v>
+        <v>-87.740700000000004</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>63989.489387</v>
+        <v>63989.489387000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>17.774858</v>
+        <v>17.774857999999998</v>
       </c>
       <c r="AQ11" s="1">
-        <v>982.334000</v>
+        <v>982.33399999999995</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.418000</v>
+        <v>-102.41800000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>64000.489662</v>
       </c>
       <c r="AU11" s="1">
-        <v>17.777914</v>
+        <v>17.777913999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>993.722000</v>
+        <v>993.72199999999998</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.748000</v>
+        <v>-123.748</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>64011.609966</v>
+        <v>64011.609966000004</v>
       </c>
       <c r="AZ11" s="1">
-        <v>17.781003</v>
+        <v>17.781002999999998</v>
       </c>
       <c r="BA11" s="1">
-        <v>1003.350000</v>
+        <v>1003.35</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.332000</v>
+        <v>-142.33199999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>64022.981776</v>
+        <v>64022.981776000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>17.784162</v>
+        <v>17.784161999999998</v>
       </c>
       <c r="BF11" s="1">
-        <v>1048.810000</v>
+        <v>1048.81</v>
       </c>
       <c r="BG11" s="1">
-        <v>-226.322000</v>
+        <v>-226.322</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>64033.344196</v>
+        <v>64033.344195999998</v>
       </c>
       <c r="BJ11" s="1">
-        <v>17.787040</v>
+        <v>17.787040000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1128.290000</v>
+        <v>1128.29</v>
       </c>
       <c r="BL11" s="1">
-        <v>-360.440000</v>
+        <v>-360.44</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>64045.162833</v>
+        <v>64045.162833000002</v>
       </c>
       <c r="BO11" s="1">
-        <v>17.790323</v>
+        <v>17.790323000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1259.230000</v>
+        <v>1259.23</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-567.100000</v>
+        <v>-567.1</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>64056.726066</v>
+        <v>64056.726066000003</v>
       </c>
       <c r="BT11" s="1">
-        <v>17.793535</v>
+        <v>17.793534999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1405.320000</v>
+        <v>1405.32</v>
       </c>
       <c r="BV11" s="1">
-        <v>-787.006000</v>
+        <v>-787.00599999999997</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>64067.931224</v>
       </c>
       <c r="BY11" s="1">
-        <v>17.796648</v>
+        <v>17.796648000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1565.580000</v>
+        <v>1565.58</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1016.690000</v>
+        <v>-1016.69</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>64079.774164</v>
+        <v>64079.774164000002</v>
       </c>
       <c r="CD11" s="1">
         <v>17.799937</v>
       </c>
       <c r="CE11" s="1">
-        <v>1967.100000</v>
+        <v>1967.1</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1552.610000</v>
+        <v>-1552.61</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>63907.137625</v>
+        <v>63907.137625000003</v>
       </c>
       <c r="B12" s="1">
-        <v>17.751983</v>
+        <v>17.751982999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>898.940000</v>
+        <v>898.94</v>
       </c>
       <c r="D12" s="1">
-        <v>-196.949000</v>
+        <v>-196.94900000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>63917.567039</v>
+        <v>63917.567039000001</v>
       </c>
       <c r="G12" s="1">
-        <v>17.754880</v>
+        <v>17.75488</v>
       </c>
       <c r="H12" s="1">
-        <v>917.015000</v>
+        <v>917.01499999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-167.677000</v>
+        <v>-167.67699999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>63928.100078</v>
+        <v>63928.100078000003</v>
       </c>
       <c r="L12" s="1">
-        <v>17.757806</v>
+        <v>17.757805999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>939.417000</v>
+        <v>939.41700000000003</v>
       </c>
       <c r="N12" s="1">
-        <v>-120.287000</v>
+        <v>-120.28700000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>63938.274511</v>
+        <v>63938.274511000003</v>
       </c>
       <c r="Q12" s="1">
-        <v>17.760632</v>
+        <v>17.760632000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>946.306000</v>
+        <v>946.30600000000004</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.726000</v>
+        <v>-104.726</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>63948.882266</v>
+        <v>63948.882266000001</v>
       </c>
       <c r="V12" s="1">
-        <v>17.763578</v>
+        <v>17.763577999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>952.920000</v>
+        <v>952.92</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.767500</v>
+        <v>-90.767499999999998</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>63959.060819</v>
+        <v>63959.060818999998</v>
       </c>
       <c r="AA12" s="1">
         <v>17.766406</v>
       </c>
       <c r="AB12" s="1">
-        <v>960.350000</v>
+        <v>960.35</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.857300</v>
+        <v>-80.857299999999995</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>63969.249639</v>
+        <v>63969.249639000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>17.769236</v>
+        <v>17.769235999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>965.222000</v>
+        <v>965.22199999999998</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.229800</v>
+        <v>-80.229799999999997</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>63979.101177</v>
+        <v>63979.101176999997</v>
       </c>
       <c r="AK12" s="1">
-        <v>17.771973</v>
+        <v>17.771972999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>973.167000</v>
+        <v>973.16700000000003</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.724300</v>
+        <v>-87.724299999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>63989.849978</v>
+        <v>63989.849977999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>17.774958</v>
+        <v>17.774958000000002</v>
       </c>
       <c r="AQ12" s="1">
-        <v>982.336000</v>
+        <v>982.33600000000001</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.398000</v>
+        <v>-102.398</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>64000.918236</v>
+        <v>64000.918235999998</v>
       </c>
       <c r="AU12" s="1">
-        <v>17.778033</v>
+        <v>17.778033000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>993.702000</v>
+        <v>993.702</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.760000</v>
+        <v>-123.76</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>64012.304402</v>
+        <v>64012.304402000002</v>
       </c>
       <c r="AZ12" s="1">
-        <v>17.781196</v>
+        <v>17.781196000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1003.340000</v>
+        <v>1003.34</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.343000</v>
+        <v>-142.34299999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>64023.287776</v>
+        <v>64023.287775999997</v>
       </c>
       <c r="BE12" s="1">
-        <v>17.784247</v>
+        <v>17.784247000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1048.800000</v>
+        <v>1048.8</v>
       </c>
       <c r="BG12" s="1">
-        <v>-226.332000</v>
+        <v>-226.33199999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>64033.734550</v>
+        <v>64033.734550000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>17.787148</v>
+        <v>17.787147999999998</v>
       </c>
       <c r="BK12" s="1">
-        <v>1128.380000</v>
+        <v>1128.3800000000001</v>
       </c>
       <c r="BL12" s="1">
-        <v>-360.474000</v>
+        <v>-360.47399999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>64045.584434</v>
+        <v>64045.584433999997</v>
       </c>
       <c r="BO12" s="1">
-        <v>17.790440</v>
+        <v>17.79044</v>
       </c>
       <c r="BP12" s="1">
-        <v>1259.200000</v>
+        <v>1259.2</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-567.091000</v>
+        <v>-567.09100000000001</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>64057.139729</v>
+        <v>64057.139729000002</v>
       </c>
       <c r="BT12" s="1">
-        <v>17.793650</v>
+        <v>17.79365</v>
       </c>
       <c r="BU12" s="1">
-        <v>1405.370000</v>
+        <v>1405.37</v>
       </c>
       <c r="BV12" s="1">
-        <v>-787.029000</v>
+        <v>-787.029</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>64068.380601</v>
+        <v>64068.380600999997</v>
       </c>
       <c r="BY12" s="1">
-        <v>17.796772</v>
+        <v>17.796772000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1565.800000</v>
+        <v>1565.8</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1016.670000</v>
+        <v>-1016.67</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>64080.243379</v>
@@ -3291,195 +3707,195 @@
         <v>17.800068</v>
       </c>
       <c r="CE12" s="1">
-        <v>1968.900000</v>
+        <v>1968.9</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1553.130000</v>
+        <v>-1553.13</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>63907.475909</v>
+        <v>63907.475909000001</v>
       </c>
       <c r="B13" s="1">
         <v>17.752077</v>
       </c>
       <c r="C13" s="1">
-        <v>899.032000</v>
+        <v>899.03200000000004</v>
       </c>
       <c r="D13" s="1">
-        <v>-197.115000</v>
+        <v>-197.11500000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>63918.221225</v>
+        <v>63918.221225000001</v>
       </c>
       <c r="G13" s="1">
-        <v>17.755061</v>
+        <v>17.755061000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>916.849000</v>
+        <v>916.84900000000005</v>
       </c>
       <c r="I13" s="1">
-        <v>-167.275000</v>
+        <v>-167.27500000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>63928.545484</v>
+        <v>63928.545484000002</v>
       </c>
       <c r="L13" s="1">
-        <v>17.757929</v>
+        <v>17.757929000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>939.508000</v>
+        <v>939.50800000000004</v>
       </c>
       <c r="N13" s="1">
-        <v>-120.266000</v>
+        <v>-120.26600000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>63938.658382</v>
+        <v>63938.658382000001</v>
       </c>
       <c r="Q13" s="1">
         <v>17.760738</v>
       </c>
       <c r="R13" s="1">
-        <v>946.335000</v>
+        <v>946.33500000000004</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.756000</v>
+        <v>-104.756</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>63949.227668</v>
       </c>
       <c r="V13" s="1">
-        <v>17.763674</v>
+        <v>17.763674000000002</v>
       </c>
       <c r="W13" s="1">
-        <v>952.962000</v>
+        <v>952.96199999999999</v>
       </c>
       <c r="X13" s="1">
-        <v>-90.711900</v>
+        <v>-90.7119</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>63959.408516</v>
+        <v>63959.408516000003</v>
       </c>
       <c r="AA13" s="1">
-        <v>17.766502</v>
+        <v>17.766501999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>960.257000</v>
+        <v>960.25699999999995</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.834900</v>
+        <v>-80.834900000000005</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>63969.596839</v>
+        <v>63969.596838999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>17.769332</v>
+        <v>17.769331999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>965.289000</v>
+        <v>965.28899999999999</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.281400</v>
+        <v>-80.281400000000005</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>63979.538152</v>
+        <v>63979.538152000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>17.772094</v>
+        <v>17.772093999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>973.211000</v>
+        <v>973.21100000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.709700</v>
+        <v>-87.709699999999998</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>63990.284474</v>
       </c>
       <c r="AP13" s="1">
-        <v>17.775079</v>
+        <v>17.775079000000002</v>
       </c>
       <c r="AQ13" s="1">
-        <v>982.326000</v>
+        <v>982.32600000000002</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.416000</v>
+        <v>-102.416</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>64001.222284</v>
+        <v>64001.222284000003</v>
       </c>
       <c r="AU13" s="1">
-        <v>17.778117</v>
+        <v>17.778117000000002</v>
       </c>
       <c r="AV13" s="1">
-        <v>993.710000</v>
+        <v>993.71</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.771000</v>
+        <v>-123.771</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>64012.665948</v>
+        <v>64012.665948000002</v>
       </c>
       <c r="AZ13" s="1">
-        <v>17.781296</v>
+        <v>17.781296000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1003.360000</v>
+        <v>1003.36</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.326000</v>
+        <v>-142.32599999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>64023.647374</v>
       </c>
       <c r="BE13" s="1">
-        <v>17.784346</v>
+        <v>17.784345999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1048.790000</v>
+        <v>1048.79</v>
       </c>
       <c r="BG13" s="1">
-        <v>-226.317000</v>
+        <v>-226.31700000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>64034.111007</v>
@@ -3488,876 +3904,876 @@
         <v>17.787253</v>
       </c>
       <c r="BK13" s="1">
-        <v>1128.250000</v>
+        <v>1128.25</v>
       </c>
       <c r="BL13" s="1">
-        <v>-360.478000</v>
+        <v>-360.47800000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>64046.397872</v>
+        <v>64046.397872000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>17.790666</v>
+        <v>17.790666000000002</v>
       </c>
       <c r="BP13" s="1">
-        <v>1259.230000</v>
+        <v>1259.23</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-567.087000</v>
+        <v>-567.08699999999999</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>64057.559842</v>
+        <v>64057.559842000002</v>
       </c>
       <c r="BT13" s="1">
-        <v>17.793767</v>
+        <v>17.793766999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1405.470000</v>
+        <v>1405.47</v>
       </c>
       <c r="BV13" s="1">
-        <v>-786.956000</v>
+        <v>-786.95600000000002</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>64068.813571</v>
+        <v>64068.813570999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>17.796893</v>
+        <v>17.796893000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1565.600000</v>
+        <v>1565.6</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1016.750000</v>
+        <v>-1016.75</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>64080.761730</v>
+        <v>64080.761729999998</v>
       </c>
       <c r="CD13" s="1">
-        <v>17.800212</v>
+        <v>17.800211999999998</v>
       </c>
       <c r="CE13" s="1">
-        <v>1969.130000</v>
+        <v>1969.13</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1551.400000</v>
+        <v>-1551.4</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>63908.133096</v>
+        <v>63908.133095999998</v>
       </c>
       <c r="B14" s="1">
-        <v>17.752259</v>
+        <v>17.752258999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>898.913000</v>
+        <v>898.91300000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-197.022000</v>
+        <v>-197.02199999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>63918.598682</v>
+        <v>63918.598682000003</v>
       </c>
       <c r="G14" s="1">
-        <v>17.755166</v>
+        <v>17.755165999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>916.487000</v>
+        <v>916.48699999999997</v>
       </c>
       <c r="I14" s="1">
-        <v>-167.360000</v>
+        <v>-167.36</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>63928.779598</v>
+        <v>63928.779598000001</v>
       </c>
       <c r="L14" s="1">
         <v>17.757994</v>
       </c>
       <c r="M14" s="1">
-        <v>939.480000</v>
+        <v>939.48</v>
       </c>
       <c r="N14" s="1">
-        <v>-120.336000</v>
+        <v>-120.336</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>63939.004591</v>
+        <v>63939.004590999997</v>
       </c>
       <c r="Q14" s="1">
         <v>17.760835</v>
       </c>
       <c r="R14" s="1">
-        <v>946.339000</v>
+        <v>946.33900000000006</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.751000</v>
+        <v>-104.751</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>63949.569391</v>
+        <v>63949.569390999997</v>
       </c>
       <c r="V14" s="1">
         <v>17.763769</v>
       </c>
       <c r="W14" s="1">
-        <v>952.959000</v>
+        <v>952.95899999999995</v>
       </c>
       <c r="X14" s="1">
-        <v>-90.701300</v>
+        <v>-90.701300000000003</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>63959.757698</v>
+        <v>63959.757698000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>17.766599</v>
+        <v>17.766598999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>960.311000</v>
+        <v>960.31100000000004</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.880000</v>
+        <v>-80.88</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>63970.011990</v>
+        <v>63970.011989999999</v>
       </c>
       <c r="AF14" s="1">
-        <v>17.769448</v>
+        <v>17.769448000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>965.316000</v>
+        <v>965.31600000000003</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.219500</v>
+        <v>-80.219499999999996</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>63979.810952</v>
       </c>
       <c r="AK14" s="1">
-        <v>17.772170</v>
+        <v>17.772169999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>973.161000</v>
+        <v>973.16099999999994</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.688200</v>
+        <v>-87.688199999999995</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>63990.571203</v>
       </c>
       <c r="AP14" s="1">
-        <v>17.775159</v>
+        <v>17.775158999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>982.329000</v>
+        <v>982.32899999999995</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.422000</v>
+        <v>-102.422</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>64001.585851</v>
+        <v>64001.585851000003</v>
       </c>
       <c r="AU14" s="1">
-        <v>17.778218</v>
+        <v>17.778217999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>993.695000</v>
+        <v>993.69500000000005</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.753000</v>
+        <v>-123.753</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>64013.024061</v>
+        <v>64013.024060999996</v>
       </c>
       <c r="AZ14" s="1">
-        <v>17.781396</v>
+        <v>17.781396000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1003.330000</v>
+        <v>1003.33</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.328000</v>
+        <v>-142.328</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>64024.007966</v>
+        <v>64024.007965999997</v>
       </c>
       <c r="BE14" s="1">
         <v>17.784447</v>
       </c>
       <c r="BF14" s="1">
-        <v>1048.790000</v>
+        <v>1048.79</v>
       </c>
       <c r="BG14" s="1">
-        <v>-226.318000</v>
+        <v>-226.31800000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>64034.861919</v>
+        <v>64034.861919000003</v>
       </c>
       <c r="BJ14" s="1">
-        <v>17.787462</v>
+        <v>17.787462000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1128.350000</v>
+        <v>1128.3499999999999</v>
       </c>
       <c r="BL14" s="1">
-        <v>-360.452000</v>
+        <v>-360.452</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>64046.817028</v>
+        <v>64046.817027999998</v>
       </c>
       <c r="BO14" s="1">
-        <v>17.790783</v>
+        <v>17.790783000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1259.200000</v>
+        <v>1259.2</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-567.087000</v>
+        <v>-567.08699999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>64057.992848</v>
+        <v>64057.992848000002</v>
       </c>
       <c r="BT14" s="1">
-        <v>17.793887</v>
+        <v>17.793887000000002</v>
       </c>
       <c r="BU14" s="1">
-        <v>1405.540000</v>
+        <v>1405.54</v>
       </c>
       <c r="BV14" s="1">
-        <v>-786.880000</v>
+        <v>-786.88</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>64069.267939</v>
+        <v>64069.267938999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>17.797019</v>
+        <v>17.797018999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1565.470000</v>
+        <v>1565.47</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1016.690000</v>
+        <v>-1016.69</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>64081.595505</v>
+        <v>64081.595504999998</v>
       </c>
       <c r="CD14" s="1">
-        <v>17.800443</v>
+        <v>17.800443000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1967.370000</v>
+        <v>1967.37</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1551.270000</v>
+        <v>-1551.27</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>63908.504600</v>
+        <v>63908.5046</v>
       </c>
       <c r="B15" s="1">
-        <v>17.752362</v>
+        <v>17.752362000000002</v>
       </c>
       <c r="C15" s="1">
-        <v>899.073000</v>
+        <v>899.07299999999998</v>
       </c>
       <c r="D15" s="1">
-        <v>-196.964000</v>
+        <v>-196.964</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>63918.944409</v>
+        <v>63918.944409000003</v>
       </c>
       <c r="G15" s="1">
-        <v>17.755262</v>
+        <v>17.755261999999998</v>
       </c>
       <c r="H15" s="1">
-        <v>916.658000</v>
+        <v>916.65800000000002</v>
       </c>
       <c r="I15" s="1">
-        <v>-167.301000</v>
+        <v>-167.30099999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>63929.125276</v>
+        <v>63929.125275999999</v>
       </c>
       <c r="L15" s="1">
-        <v>17.758090</v>
+        <v>17.758089999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>939.572000</v>
+        <v>939.572</v>
       </c>
       <c r="N15" s="1">
-        <v>-120.246000</v>
+        <v>-120.246</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>63939.352297</v>
+        <v>63939.352296999998</v>
       </c>
       <c r="Q15" s="1">
-        <v>17.760931</v>
+        <v>17.760930999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>946.294000</v>
+        <v>946.29399999999998</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.770000</v>
+        <v>-104.77</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>63949.992959</v>
+        <v>63949.992959000003</v>
       </c>
       <c r="V15" s="1">
         <v>17.763887</v>
       </c>
       <c r="W15" s="1">
-        <v>952.912000</v>
+        <v>952.91200000000003</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.774900</v>
+        <v>-90.774900000000002</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>63960.186242</v>
+        <v>63960.186242000003</v>
       </c>
       <c r="AA15" s="1">
-        <v>17.766718</v>
+        <v>17.766718000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>960.326000</v>
+        <v>960.32600000000002</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.960800</v>
+        <v>-80.960800000000006</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>63970.302646</v>
+        <v>63970.302645999996</v>
       </c>
       <c r="AF15" s="1">
-        <v>17.769529</v>
+        <v>17.769528999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>965.213000</v>
+        <v>965.21299999999997</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.221300</v>
+        <v>-80.221299999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>63980.158679</v>
       </c>
       <c r="AK15" s="1">
-        <v>17.772266</v>
+        <v>17.772265999999998</v>
       </c>
       <c r="AL15" s="1">
-        <v>973.167000</v>
+        <v>973.16700000000003</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.681300</v>
+        <v>-87.681299999999993</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>63990.930266</v>
+        <v>63990.930266000003</v>
       </c>
       <c r="AP15" s="1">
-        <v>17.775258</v>
+        <v>17.775258000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>982.349000</v>
+        <v>982.34900000000005</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.402000</v>
+        <v>-102.402</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>64001.950380</v>
+        <v>64001.950380000002</v>
       </c>
       <c r="AU15" s="1">
-        <v>17.778320</v>
+        <v>17.778320000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>993.698000</v>
+        <v>993.69799999999998</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.750000</v>
+        <v>-123.75</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>64013.743259</v>
+        <v>64013.743259000003</v>
       </c>
       <c r="AZ15" s="1">
-        <v>17.781595</v>
+        <v>17.781594999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1003.330000</v>
+        <v>1003.33</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.344000</v>
+        <v>-142.34399999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>64024.732125</v>
+        <v>64024.732125000002</v>
       </c>
       <c r="BE15" s="1">
-        <v>17.784648</v>
+        <v>17.784648000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1048.810000</v>
+        <v>1048.81</v>
       </c>
       <c r="BG15" s="1">
-        <v>-226.323000</v>
+        <v>-226.32300000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>64035.234414</v>
+        <v>64035.234413999999</v>
       </c>
       <c r="BJ15" s="1">
-        <v>17.787565</v>
+        <v>17.787565000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1128.310000</v>
+        <v>1128.31</v>
       </c>
       <c r="BL15" s="1">
-        <v>-360.519000</v>
+        <v>-360.51900000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>64047.214325</v>
+        <v>64047.214325000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>17.790893</v>
+        <v>17.790893000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1259.220000</v>
+        <v>1259.22</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-567.133000</v>
+        <v>-567.13300000000004</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>64058.421392</v>
+        <v>64058.421391999997</v>
       </c>
       <c r="BT15" s="1">
         <v>17.794006</v>
       </c>
       <c r="BU15" s="1">
-        <v>1405.680000</v>
+        <v>1405.68</v>
       </c>
       <c r="BV15" s="1">
-        <v>-786.932000</v>
+        <v>-786.93200000000002</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>64070.037202</v>
       </c>
       <c r="BY15" s="1">
-        <v>17.797233</v>
+        <v>17.797232999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1565.680000</v>
+        <v>1565.68</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1016.770000</v>
+        <v>-1016.77</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>64081.801314</v>
+        <v>64081.801313999997</v>
       </c>
       <c r="CD15" s="1">
-        <v>17.800500</v>
+        <v>17.8005</v>
       </c>
       <c r="CE15" s="1">
-        <v>1967.440000</v>
+        <v>1967.44</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1552.500000</v>
+        <v>-1552.5</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>63908.848325</v>
+        <v>63908.848324999999</v>
       </c>
       <c r="B16" s="1">
-        <v>17.752458</v>
+        <v>17.752458000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>899.064000</v>
+        <v>899.06399999999996</v>
       </c>
       <c r="D16" s="1">
-        <v>-196.819000</v>
+        <v>-196.81899999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>63919.288616</v>
+        <v>63919.288615999998</v>
       </c>
       <c r="G16" s="1">
-        <v>17.755358</v>
+        <v>17.755358000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>916.787000</v>
+        <v>916.78700000000003</v>
       </c>
       <c r="I16" s="1">
-        <v>-167.661000</v>
+        <v>-167.661</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>63929.554347</v>
+        <v>63929.554346999998</v>
       </c>
       <c r="L16" s="1">
-        <v>17.758210</v>
+        <v>17.758209999999998</v>
       </c>
       <c r="M16" s="1">
-        <v>939.720000</v>
+        <v>939.72</v>
       </c>
       <c r="N16" s="1">
-        <v>-120.283000</v>
+        <v>-120.283</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>63939.779373</v>
+        <v>63939.779372999998</v>
       </c>
       <c r="Q16" s="1">
-        <v>17.761050</v>
+        <v>17.761050000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>946.281000</v>
+        <v>946.28099999999995</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.755000</v>
+        <v>-104.755</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>63950.260799</v>
+        <v>63950.260799000003</v>
       </c>
       <c r="V16" s="1">
-        <v>17.763961</v>
+        <v>17.763960999999998</v>
       </c>
       <c r="W16" s="1">
-        <v>952.938000</v>
+        <v>952.93799999999999</v>
       </c>
       <c r="X16" s="1">
-        <v>-90.816300</v>
+        <v>-90.816299999999998</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>63960.467473</v>
+        <v>63960.467472999997</v>
       </c>
       <c r="AA16" s="1">
         <v>17.766797</v>
       </c>
       <c r="AB16" s="1">
-        <v>960.325000</v>
+        <v>960.32500000000005</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.920700</v>
+        <v>-80.920699999999997</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>63970.644884</v>
+        <v>63970.644884000001</v>
       </c>
       <c r="AF16" s="1">
         <v>17.769624</v>
       </c>
       <c r="AG16" s="1">
-        <v>965.259000</v>
+        <v>965.25900000000001</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.199700</v>
+        <v>-80.199700000000007</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>63980.507336</v>
+        <v>63980.507336000002</v>
       </c>
       <c r="AK16" s="1">
-        <v>17.772363</v>
+        <v>17.772362999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>973.181000</v>
+        <v>973.18100000000004</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.713800</v>
+        <v>-87.713800000000006</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>63991.288376</v>
+        <v>63991.288375999997</v>
       </c>
       <c r="AP16" s="1">
-        <v>17.775358</v>
+        <v>17.775358000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>982.327000</v>
+        <v>982.327</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.409000</v>
+        <v>-102.40900000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>64002.680490</v>
+        <v>64002.680489999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>17.778522</v>
+        <v>17.778521999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>993.703000</v>
+        <v>993.70299999999997</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.744000</v>
+        <v>-123.744</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>64014.101866</v>
+        <v>64014.101865999997</v>
       </c>
       <c r="AZ16" s="1">
-        <v>17.781695</v>
+        <v>17.781694999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1003.350000</v>
+        <v>1003.35</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.328000</v>
+        <v>-142.328</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>64025.092039</v>
+        <v>64025.092039000003</v>
       </c>
       <c r="BE16" s="1">
         <v>17.784748</v>
       </c>
       <c r="BF16" s="1">
-        <v>1048.800000</v>
+        <v>1048.8</v>
       </c>
       <c r="BG16" s="1">
-        <v>-226.318000</v>
+        <v>-226.31800000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>64035.610414</v>
+        <v>64035.610414000002</v>
       </c>
       <c r="BJ16" s="1">
-        <v>17.787670</v>
+        <v>17.787669999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1128.320000</v>
+        <v>1128.32</v>
       </c>
       <c r="BL16" s="1">
-        <v>-360.513000</v>
+        <v>-360.51299999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>64047.949855</v>
+        <v>64047.949854999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>17.791097</v>
+        <v>17.791097000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1259.200000</v>
+        <v>1259.2</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-567.125000</v>
+        <v>-567.125</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>64059.136655</v>
+        <v>64059.136655000002</v>
       </c>
       <c r="BT16" s="1">
-        <v>17.794205</v>
+        <v>17.794205000000002</v>
       </c>
       <c r="BU16" s="1">
-        <v>1405.690000</v>
+        <v>1405.69</v>
       </c>
       <c r="BV16" s="1">
-        <v>-787.041000</v>
+        <v>-787.04100000000005</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>64070.165200</v>
+        <v>64070.165200000003</v>
       </c>
       <c r="BY16" s="1">
-        <v>17.797268</v>
+        <v>17.797267999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1565.720000</v>
+        <v>1565.72</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1016.640000</v>
+        <v>-1016.64</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>64082.319632</v>
+        <v>64082.319631999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>17.800644</v>
+        <v>17.800643999999998</v>
       </c>
       <c r="CE16" s="1">
-        <v>1967.440000</v>
+        <v>1967.44</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1553.130000</v>
+        <v>-1553.13</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>63909.189112</v>
       </c>
       <c r="B17" s="1">
-        <v>17.752553</v>
+        <v>17.752552999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>899.210000</v>
+        <v>899.21</v>
       </c>
       <c r="D17" s="1">
-        <v>-196.963000</v>
+        <v>-196.96299999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>63919.708232</v>
+        <v>63919.708231999997</v>
       </c>
       <c r="G17" s="1">
-        <v>17.755475</v>
+        <v>17.755475000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>916.620000</v>
+        <v>916.62</v>
       </c>
       <c r="I17" s="1">
-        <v>-167.727000</v>
+        <v>-167.727</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>63929.821162</v>
@@ -4366,1388 +4782,1388 @@
         <v>17.758284</v>
       </c>
       <c r="M17" s="1">
-        <v>939.546000</v>
+        <v>939.54600000000005</v>
       </c>
       <c r="N17" s="1">
-        <v>-120.219000</v>
+        <v>-120.21899999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>63940.055614</v>
+        <v>63940.055613999997</v>
       </c>
       <c r="Q17" s="1">
-        <v>17.761127</v>
+        <v>17.761126999999998</v>
       </c>
       <c r="R17" s="1">
-        <v>946.276000</v>
+        <v>946.27599999999995</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.759000</v>
+        <v>-104.759</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>63950.601550</v>
+        <v>63950.601549999999</v>
       </c>
       <c r="V17" s="1">
         <v>17.764056</v>
       </c>
       <c r="W17" s="1">
-        <v>952.942000</v>
+        <v>952.94200000000001</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.698700</v>
+        <v>-90.698700000000002</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>63960.814418</v>
+        <v>63960.814418000002</v>
       </c>
       <c r="AA17" s="1">
         <v>17.766893</v>
       </c>
       <c r="AB17" s="1">
-        <v>960.337000</v>
+        <v>960.33699999999999</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.920900</v>
+        <v>-80.920900000000003</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>63970.986164</v>
+        <v>63970.986164000002</v>
       </c>
       <c r="AF17" s="1">
-        <v>17.769718</v>
+        <v>17.769718000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>965.187000</v>
+        <v>965.18700000000001</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.191800</v>
+        <v>-80.191800000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>63981.204711</v>
+        <v>63981.204710999998</v>
       </c>
       <c r="AK17" s="1">
-        <v>17.772557</v>
+        <v>17.772556999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>973.164000</v>
+        <v>973.16399999999999</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.724900</v>
+        <v>-87.724900000000005</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>63992.010561</v>
+        <v>63992.010561000003</v>
       </c>
       <c r="AP17" s="1">
         <v>17.775558</v>
       </c>
       <c r="AQ17" s="1">
-        <v>982.331000</v>
+        <v>982.33100000000002</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.415000</v>
+        <v>-102.41500000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>64003.065881</v>
+        <v>64003.065881000002</v>
       </c>
       <c r="AU17" s="1">
-        <v>17.778629</v>
+        <v>17.778628999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>993.703000</v>
+        <v>993.70299999999997</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.744000</v>
+        <v>-123.744</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>64014.459482</v>
+        <v>64014.459481999998</v>
       </c>
       <c r="AZ17" s="1">
-        <v>17.781794</v>
+        <v>17.781794000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1003.350000</v>
+        <v>1003.35</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.327000</v>
+        <v>-142.327</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>64025.453840</v>
+        <v>64025.453840000002</v>
       </c>
       <c r="BE17" s="1">
         <v>17.784848</v>
       </c>
       <c r="BF17" s="1">
-        <v>1048.790000</v>
+        <v>1048.79</v>
       </c>
       <c r="BG17" s="1">
-        <v>-226.319000</v>
+        <v>-226.31899999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>64036.329581</v>
+        <v>64036.329580999998</v>
       </c>
       <c r="BJ17" s="1">
-        <v>17.787869</v>
+        <v>17.787869000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1128.330000</v>
+        <v>1128.33</v>
       </c>
       <c r="BL17" s="1">
-        <v>-360.436000</v>
+        <v>-360.43599999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>64048.059502</v>
+        <v>64048.059501999996</v>
       </c>
       <c r="BO17" s="1">
         <v>17.791128</v>
       </c>
       <c r="BP17" s="1">
-        <v>1259.230000</v>
+        <v>1259.23</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-567.106000</v>
+        <v>-567.10599999999999</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>64059.262640</v>
+        <v>64059.262640000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>17.794240</v>
+        <v>17.794239999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1405.790000</v>
+        <v>1405.79</v>
       </c>
       <c r="BV17" s="1">
-        <v>-787.079000</v>
+        <v>-787.07899999999995</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>64070.585280</v>
+        <v>64070.585279999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>17.797385</v>
+        <v>17.797384999999998</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1565.560000</v>
+        <v>1565.56</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1016.600000</v>
+        <v>-1016.6</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>64082.865730</v>
+        <v>64082.865729999998</v>
       </c>
       <c r="CD17" s="1">
-        <v>17.800796</v>
+        <v>17.800795999999998</v>
       </c>
       <c r="CE17" s="1">
-        <v>1967.100000</v>
+        <v>1967.1</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1552.630000</v>
+        <v>-1552.63</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>63909.613188</v>
+        <v>63909.613188000003</v>
       </c>
       <c r="B18" s="1">
-        <v>17.752670</v>
+        <v>17.752669999999998</v>
       </c>
       <c r="C18" s="1">
-        <v>899.120000</v>
+        <v>899.12</v>
       </c>
       <c r="D18" s="1">
-        <v>-196.950000</v>
+        <v>-196.95</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>63919.977594</v>
+        <v>63919.977594000004</v>
       </c>
       <c r="G18" s="1">
-        <v>17.755549</v>
+        <v>17.755548999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>916.473000</v>
+        <v>916.47299999999996</v>
       </c>
       <c r="I18" s="1">
-        <v>-167.477000</v>
+        <v>-167.477</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>63930.169353</v>
+        <v>63930.169352999997</v>
       </c>
       <c r="L18" s="1">
-        <v>17.758380</v>
+        <v>17.758379999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>939.556000</v>
+        <v>939.55600000000004</v>
       </c>
       <c r="N18" s="1">
-        <v>-120.341000</v>
+        <v>-120.34099999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>63940.408268</v>
+        <v>63940.408267999999</v>
       </c>
       <c r="Q18" s="1">
         <v>17.761225</v>
       </c>
       <c r="R18" s="1">
-        <v>946.296000</v>
+        <v>946.29600000000005</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.729000</v>
+        <v>-104.729</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>63950.943294</v>
+        <v>63950.943293999997</v>
       </c>
       <c r="V18" s="1">
-        <v>17.764151</v>
+        <v>17.764150999999998</v>
       </c>
       <c r="W18" s="1">
-        <v>953.013000</v>
+        <v>953.01300000000003</v>
       </c>
       <c r="X18" s="1">
-        <v>-90.852200</v>
+        <v>-90.852199999999996</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>63961.201554</v>
+        <v>63961.201553999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>17.767000</v>
+        <v>17.766999999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>960.307000</v>
+        <v>960.30700000000002</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.924500</v>
+        <v>-80.924499999999995</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>63971.676066</v>
       </c>
       <c r="AF18" s="1">
-        <v>17.769910</v>
+        <v>17.769909999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>965.255000</v>
+        <v>965.255</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.252300</v>
+        <v>-80.252300000000005</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>63981.552903</v>
+        <v>63981.552903000003</v>
       </c>
       <c r="AK18" s="1">
-        <v>17.772654</v>
+        <v>17.772653999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>973.174000</v>
+        <v>973.17399999999998</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.706400</v>
+        <v>-87.706400000000002</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>63992.369655</v>
+        <v>63992.369655000002</v>
       </c>
       <c r="AP18" s="1">
         <v>17.775658</v>
       </c>
       <c r="AQ18" s="1">
-        <v>982.334000</v>
+        <v>982.33399999999995</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.426000</v>
+        <v>-102.426</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>64003.427999</v>
       </c>
       <c r="AU18" s="1">
-        <v>17.778730</v>
+        <v>17.778729999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>993.717000</v>
+        <v>993.71699999999998</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.778000</v>
+        <v>-123.77800000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>64015.132554</v>
+        <v>64015.132554000003</v>
       </c>
       <c r="AZ18" s="1">
-        <v>17.781981</v>
+        <v>17.781980999999998</v>
       </c>
       <c r="BA18" s="1">
-        <v>1003.350000</v>
+        <v>1003.35</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.319000</v>
+        <v>-142.31899999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>64026.123404</v>
+        <v>64026.123403999998</v>
       </c>
       <c r="BE18" s="1">
         <v>17.785034</v>
       </c>
       <c r="BF18" s="1">
-        <v>1048.800000</v>
+        <v>1048.8</v>
       </c>
       <c r="BG18" s="1">
-        <v>-226.314000</v>
+        <v>-226.31399999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>64036.763618</v>
+        <v>64036.763617999997</v>
       </c>
       <c r="BJ18" s="1">
-        <v>17.787990</v>
+        <v>17.787990000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1128.280000</v>
+        <v>1128.28</v>
       </c>
       <c r="BL18" s="1">
-        <v>-360.468000</v>
+        <v>-360.46800000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>64048.455776</v>
+        <v>64048.455776000003</v>
       </c>
       <c r="BO18" s="1">
         <v>17.791238</v>
       </c>
       <c r="BP18" s="1">
-        <v>1259.190000</v>
+        <v>1259.19</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-567.093000</v>
+        <v>-567.09299999999996</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>64059.699615</v>
+        <v>64059.699614999998</v>
       </c>
       <c r="BT18" s="1">
-        <v>17.794361</v>
+        <v>17.794360999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1405.850000</v>
+        <v>1405.85</v>
       </c>
       <c r="BV18" s="1">
-        <v>-787.081000</v>
+        <v>-787.08100000000002</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>64071.013330</v>
+        <v>64071.013330000002</v>
       </c>
       <c r="BY18" s="1">
         <v>17.797504</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1565.560000</v>
+        <v>1565.56</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1016.660000</v>
+        <v>-1016.66</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>64083.394961</v>
+        <v>64083.394960999998</v>
       </c>
       <c r="CD18" s="1">
         <v>17.800943</v>
       </c>
       <c r="CE18" s="1">
-        <v>1968.560000</v>
+        <v>1968.56</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1553.100000</v>
+        <v>-1553.1</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>63909.891444</v>
+        <v>63909.891444000001</v>
       </c>
       <c r="B19" s="1">
         <v>17.752748</v>
       </c>
       <c r="C19" s="1">
-        <v>899.237000</v>
+        <v>899.23699999999997</v>
       </c>
       <c r="D19" s="1">
-        <v>-196.906000</v>
+        <v>-196.90600000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>63920.323302</v>
+        <v>63920.323301999997</v>
       </c>
       <c r="G19" s="1">
-        <v>17.755645</v>
+        <v>17.755645000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>916.566000</v>
+        <v>916.56600000000003</v>
       </c>
       <c r="I19" s="1">
-        <v>-167.586000</v>
+        <v>-167.58600000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>63930.513081</v>
+        <v>63930.513080999997</v>
       </c>
       <c r="L19" s="1">
-        <v>17.758476</v>
+        <v>17.758476000000002</v>
       </c>
       <c r="M19" s="1">
-        <v>939.563000</v>
+        <v>939.56299999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-120.226000</v>
+        <v>-120.226</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>63940.755964</v>
+        <v>63940.755964000004</v>
       </c>
       <c r="Q19" s="1">
-        <v>17.761321</v>
+        <v>17.761320999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>946.318000</v>
+        <v>946.31799999999998</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.762000</v>
+        <v>-104.762</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>63951.632766</v>
+        <v>63951.632766000002</v>
       </c>
       <c r="V19" s="1">
-        <v>17.764342</v>
+        <v>17.764341999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>952.890000</v>
+        <v>952.89</v>
       </c>
       <c r="X19" s="1">
-        <v>-90.735100</v>
+        <v>-90.735100000000003</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>63961.860241</v>
+        <v>63961.860241000002</v>
       </c>
       <c r="AA19" s="1">
-        <v>17.767183</v>
+        <v>17.767182999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>960.346000</v>
+        <v>960.346</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.839700</v>
+        <v>-80.839699999999993</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>63972.019795</v>
       </c>
       <c r="AF19" s="1">
-        <v>17.770005</v>
+        <v>17.770005000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>965.280000</v>
+        <v>965.28</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.191100</v>
+        <v>-80.191100000000006</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>63981.899606</v>
+        <v>63981.899605999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>17.772750</v>
+        <v>17.772749999999998</v>
       </c>
       <c r="AL19" s="1">
-        <v>973.201000</v>
+        <v>973.20100000000002</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.706900</v>
+        <v>-87.706900000000005</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>63992.731271</v>
+        <v>63992.731270999997</v>
       </c>
       <c r="AP19" s="1">
-        <v>17.775759</v>
+        <v>17.775759000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>982.339000</v>
+        <v>982.33900000000006</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.421000</v>
+        <v>-102.42100000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>64004.111979</v>
+        <v>64004.111979000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>17.778920</v>
+        <v>17.778919999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>993.697000</v>
+        <v>993.697</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.747000</v>
+        <v>-123.747</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>64015.536298</v>
+        <v>64015.536297999999</v>
       </c>
       <c r="AZ19" s="1">
         <v>17.782093</v>
       </c>
       <c r="BA19" s="1">
-        <v>1003.360000</v>
+        <v>1003.36</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.336000</v>
+        <v>-142.33600000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>64026.566330</v>
+        <v>64026.566330000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>17.785157</v>
+        <v>17.785157000000002</v>
       </c>
       <c r="BF19" s="1">
-        <v>1048.790000</v>
+        <v>1048.79</v>
       </c>
       <c r="BG19" s="1">
-        <v>-226.317000</v>
+        <v>-226.31700000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>64037.163356</v>
+        <v>64037.163355999997</v>
       </c>
       <c r="BJ19" s="1">
-        <v>17.788101</v>
+        <v>17.788101000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1128.280000</v>
+        <v>1128.28</v>
       </c>
       <c r="BL19" s="1">
-        <v>-360.444000</v>
+        <v>-360.44400000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>64048.878365</v>
+        <v>64048.878364999997</v>
       </c>
       <c r="BO19" s="1">
-        <v>17.791355</v>
+        <v>17.791354999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1259.190000</v>
+        <v>1259.19</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-567.103000</v>
+        <v>-567.10299999999995</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>64060.127135</v>
+        <v>64060.127135000002</v>
       </c>
       <c r="BT19" s="1">
-        <v>17.794480</v>
+        <v>17.79448</v>
       </c>
       <c r="BU19" s="1">
-        <v>1405.890000</v>
+        <v>1405.89</v>
       </c>
       <c r="BV19" s="1">
-        <v>-787.201000</v>
+        <v>-787.20100000000002</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>64071.434958</v>
+        <v>64071.434957999998</v>
       </c>
       <c r="BY19" s="1">
-        <v>17.797621</v>
+        <v>17.797620999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1565.630000</v>
+        <v>1565.63</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1016.750000</v>
+        <v>-1016.75</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>64083.911822</v>
+        <v>64083.911822000002</v>
       </c>
       <c r="CD19" s="1">
-        <v>17.801087</v>
+        <v>17.801086999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1969.090000</v>
+        <v>1969.09</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1551.950000</v>
+        <v>-1551.95</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>63910.231697</v>
+        <v>63910.231697000003</v>
       </c>
       <c r="B20" s="1">
-        <v>17.752842</v>
+        <v>17.752842000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>899.011000</v>
+        <v>899.01099999999997</v>
       </c>
       <c r="D20" s="1">
-        <v>-196.867000</v>
+        <v>-196.86699999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>63920.668984</v>
+        <v>63920.668984000004</v>
       </c>
       <c r="G20" s="1">
         <v>17.755741</v>
       </c>
       <c r="H20" s="1">
-        <v>916.345000</v>
+        <v>916.34500000000003</v>
       </c>
       <c r="I20" s="1">
-        <v>-168.032000</v>
+        <v>-168.03200000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>63931.206025</v>
+        <v>63931.206024999999</v>
       </c>
       <c r="L20" s="1">
         <v>17.758668</v>
       </c>
       <c r="M20" s="1">
-        <v>939.496000</v>
+        <v>939.49599999999998</v>
       </c>
       <c r="N20" s="1">
-        <v>-120.275000</v>
+        <v>-120.27500000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>63941.452348</v>
+        <v>63941.452347999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>17.761515</v>
+        <v>17.761514999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>946.349000</v>
+        <v>946.34900000000005</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.798000</v>
+        <v>-104.798</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>63951.975502</v>
+        <v>63951.975502000001</v>
       </c>
       <c r="V20" s="1">
-        <v>17.764438</v>
+        <v>17.764437999999998</v>
       </c>
       <c r="W20" s="1">
-        <v>952.914000</v>
+        <v>952.91399999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.819600</v>
+        <v>-90.819599999999994</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>63962.210912</v>
+        <v>63962.210912000002</v>
       </c>
       <c r="AA20" s="1">
-        <v>17.767281</v>
+        <v>17.767281000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>960.271000</v>
+        <v>960.27099999999996</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.889800</v>
+        <v>-80.889799999999994</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>63972.362530</v>
+        <v>63972.362529999999</v>
       </c>
       <c r="AF20" s="1">
         <v>17.770101</v>
       </c>
       <c r="AG20" s="1">
-        <v>965.260000</v>
+        <v>965.26</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.234800</v>
+        <v>-80.234800000000007</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>63982.572180</v>
+        <v>63982.572180000003</v>
       </c>
       <c r="AK20" s="1">
-        <v>17.772937</v>
+        <v>17.772936999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>973.162000</v>
+        <v>973.16200000000003</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.701600</v>
+        <v>-87.701599999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>63993.404807</v>
+        <v>63993.404806999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>17.775946</v>
+        <v>17.775946000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>982.310000</v>
+        <v>982.31</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.400000</v>
+        <v>-102.4</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>64004.549448</v>
+        <v>64004.549447999998</v>
       </c>
       <c r="AU20" s="1">
         <v>17.779042</v>
       </c>
       <c r="AV20" s="1">
-        <v>993.708000</v>
+        <v>993.70799999999997</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.757000</v>
+        <v>-123.75700000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>64015.925659</v>
       </c>
       <c r="AZ20" s="1">
-        <v>17.782202</v>
+        <v>17.782202000000002</v>
       </c>
       <c r="BA20" s="1">
-        <v>1003.350000</v>
+        <v>1003.35</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.343000</v>
+        <v>-142.34299999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>64026.926957</v>
+        <v>64026.926957000003</v>
       </c>
       <c r="BE20" s="1">
-        <v>17.785257</v>
+        <v>17.785257000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1048.780000</v>
+        <v>1048.78</v>
       </c>
       <c r="BG20" s="1">
-        <v>-226.308000</v>
+        <v>-226.30799999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>64037.538366</v>
+        <v>64037.538366000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>17.788205</v>
+        <v>17.788205000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1128.360000</v>
+        <v>1128.3599999999999</v>
       </c>
       <c r="BL20" s="1">
-        <v>-360.443000</v>
+        <v>-360.44299999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>64049.306639</v>
+        <v>64049.306639000002</v>
       </c>
       <c r="BO20" s="1">
-        <v>17.791474</v>
+        <v>17.791474000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1259.220000</v>
+        <v>1259.22</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-567.094000</v>
+        <v>-567.09400000000005</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>64060.560143</v>
+        <v>64060.560143000002</v>
       </c>
       <c r="BT20" s="1">
-        <v>17.794600</v>
+        <v>17.794599999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1405.840000</v>
+        <v>1405.84</v>
       </c>
       <c r="BV20" s="1">
-        <v>-787.298000</v>
+        <v>-787.298</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>64071.874382</v>
+        <v>64071.874382000002</v>
       </c>
       <c r="BY20" s="1">
-        <v>17.797743</v>
+        <v>17.797743000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1565.570000</v>
+        <v>1565.57</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1016.700000</v>
+        <v>-1016.7</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>64084.428127</v>
+        <v>64084.428126999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>17.801230</v>
+        <v>17.80123</v>
       </c>
       <c r="CE20" s="1">
-        <v>1967.820000</v>
+        <v>1967.82</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1551.060000</v>
+        <v>-1551.06</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>63910.574900</v>
+        <v>63910.5749</v>
       </c>
       <c r="B21" s="1">
-        <v>17.752937</v>
+        <v>17.752936999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>898.849000</v>
+        <v>898.84900000000005</v>
       </c>
       <c r="D21" s="1">
-        <v>-196.846000</v>
+        <v>-196.846</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>63921.357961</v>
+        <v>63921.357961000002</v>
       </c>
       <c r="G21" s="1">
-        <v>17.755933</v>
+        <v>17.755932999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>916.577000</v>
+        <v>916.577</v>
       </c>
       <c r="I21" s="1">
-        <v>-167.388000</v>
+        <v>-167.38800000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>63931.552199</v>
+        <v>63931.552198999998</v>
       </c>
       <c r="L21" s="1">
-        <v>17.758764</v>
+        <v>17.758763999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>939.606000</v>
+        <v>939.60599999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-120.159000</v>
+        <v>-120.15900000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>63941.804543</v>
+        <v>63941.804542999998</v>
       </c>
       <c r="Q21" s="1">
         <v>17.761612</v>
       </c>
       <c r="R21" s="1">
-        <v>946.315000</v>
+        <v>946.31500000000005</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.753000</v>
+        <v>-104.753</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>63952.318701</v>
+        <v>63952.318700999997</v>
       </c>
       <c r="V21" s="1">
         <v>17.764533</v>
       </c>
       <c r="W21" s="1">
-        <v>952.915000</v>
+        <v>952.91499999999996</v>
       </c>
       <c r="X21" s="1">
-        <v>-90.870700</v>
+        <v>-90.870699999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>63962.872574</v>
+        <v>63962.872574000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>17.767465</v>
+        <v>17.767465000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>960.288000</v>
+        <v>960.28800000000001</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.880300</v>
+        <v>-80.880300000000005</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>63973.022210</v>
+        <v>63973.022210000003</v>
       </c>
       <c r="AF21" s="1">
         <v>17.770284</v>
       </c>
       <c r="AG21" s="1">
-        <v>965.281000</v>
+        <v>965.28099999999995</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.255500</v>
+        <v>-80.255499999999998</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>63982.946661</v>
+        <v>63982.946661000002</v>
       </c>
       <c r="AK21" s="1">
-        <v>17.773041</v>
+        <v>17.773040999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>973.177000</v>
+        <v>973.17700000000002</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.704300</v>
+        <v>-87.704300000000003</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>63993.843767</v>
+        <v>63993.843766999998</v>
       </c>
       <c r="AP21" s="1">
-        <v>17.776068</v>
+        <v>17.776067999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>982.338000</v>
+        <v>982.33799999999997</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.409000</v>
+        <v>-102.40900000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>64004.912487</v>
+        <v>64004.912487000001</v>
       </c>
       <c r="AU21" s="1">
         <v>17.779142</v>
       </c>
       <c r="AV21" s="1">
-        <v>993.714000</v>
+        <v>993.71400000000006</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.763000</v>
+        <v>-123.76300000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>64016.283767</v>
+        <v>64016.283767000001</v>
       </c>
       <c r="AZ21" s="1">
         <v>17.782301</v>
       </c>
       <c r="BA21" s="1">
-        <v>1003.350000</v>
+        <v>1003.35</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.342000</v>
+        <v>-142.34200000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>64027.289497</v>
+        <v>64027.289496999998</v>
       </c>
       <c r="BE21" s="1">
-        <v>17.785358</v>
+        <v>17.785357999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1048.800000</v>
+        <v>1048.8</v>
       </c>
       <c r="BG21" s="1">
-        <v>-226.336000</v>
+        <v>-226.33600000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>64037.958480</v>
+        <v>64037.958480000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>17.788322</v>
+        <v>17.788322000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1128.270000</v>
+        <v>1128.27</v>
       </c>
       <c r="BL21" s="1">
-        <v>-360.447000</v>
+        <v>-360.447</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>64049.695317</v>
+        <v>64049.695316999998</v>
       </c>
       <c r="BO21" s="1">
-        <v>17.791582</v>
+        <v>17.791581999999998</v>
       </c>
       <c r="BP21" s="1">
-        <v>1259.200000</v>
+        <v>1259.2</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-567.103000</v>
+        <v>-567.10299999999995</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>64060.971325</v>
+        <v>64060.971324999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>17.794714</v>
+        <v>17.794713999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1405.950000</v>
+        <v>1405.95</v>
       </c>
       <c r="BV21" s="1">
-        <v>-787.383000</v>
+        <v>-787.38300000000004</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>64072.299455</v>
       </c>
       <c r="BY21" s="1">
-        <v>17.797861</v>
+        <v>17.797861000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1565.580000</v>
+        <v>1565.58</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1016.660000</v>
+        <v>-1016.66</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>64084.948925</v>
+        <v>64084.948924999997</v>
       </c>
       <c r="CD21" s="1">
         <v>17.801375</v>
       </c>
       <c r="CE21" s="1">
-        <v>1968.300000</v>
+        <v>1968.3</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1553.070000</v>
+        <v>-1553.07</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>63911.255907</v>
+        <v>63911.255906999999</v>
       </c>
       <c r="B22" s="1">
-        <v>17.753127</v>
+        <v>17.753126999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>899.146000</v>
+        <v>899.14599999999996</v>
       </c>
       <c r="D22" s="1">
-        <v>-196.998000</v>
+        <v>-196.99799999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>63921.704134</v>
       </c>
       <c r="G22" s="1">
-        <v>17.756029</v>
+        <v>17.756029000000002</v>
       </c>
       <c r="H22" s="1">
-        <v>916.688000</v>
+        <v>916.68799999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-167.581000</v>
+        <v>-167.58099999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>63931.899896</v>
+        <v>63931.899896000003</v>
       </c>
       <c r="L22" s="1">
         <v>17.758861</v>
       </c>
       <c r="M22" s="1">
-        <v>939.637000</v>
+        <v>939.63699999999994</v>
       </c>
       <c r="N22" s="1">
-        <v>-120.308000</v>
+        <v>-120.30800000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>63942.152699</v>
+        <v>63942.152698999998</v>
       </c>
       <c r="Q22" s="1">
         <v>17.761709</v>
       </c>
       <c r="R22" s="1">
-        <v>946.277000</v>
+        <v>946.27700000000004</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.750000</v>
+        <v>-104.75</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>63952.975899</v>
+        <v>63952.975898999997</v>
       </c>
       <c r="V22" s="1">
         <v>17.764716</v>
       </c>
       <c r="W22" s="1">
-        <v>953.000000</v>
+        <v>953</v>
       </c>
       <c r="X22" s="1">
-        <v>-90.728200</v>
+        <v>-90.728200000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>63963.253006</v>
+        <v>63963.253005999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>17.767570</v>
+        <v>17.767569999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>960.268000</v>
+        <v>960.26800000000003</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.927700</v>
+        <v>-80.927700000000002</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>63973.398704</v>
+        <v>63973.398703999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>17.770389</v>
+        <v>17.770389000000002</v>
       </c>
       <c r="AG22" s="1">
-        <v>965.237000</v>
+        <v>965.23699999999997</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.228800</v>
+        <v>-80.228800000000007</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>63983.297829</v>
+        <v>63983.297829000003</v>
       </c>
       <c r="AK22" s="1">
-        <v>17.773138</v>
+        <v>17.773137999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>973.160000</v>
+        <v>973.16</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.724200</v>
+        <v>-87.724199999999996</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>63994.202869</v>
+        <v>63994.202869000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>17.776167</v>
+        <v>17.776167000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>982.339000</v>
+        <v>982.33900000000006</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.432000</v>
+        <v>-102.432</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>64005.281015</v>
@@ -5756,58 +6172,58 @@
         <v>17.779245</v>
       </c>
       <c r="AV22" s="1">
-        <v>993.709000</v>
+        <v>993.70899999999995</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.749000</v>
+        <v>-123.749</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>64016.705863</v>
+        <v>64016.705863000003</v>
       </c>
       <c r="AZ22" s="1">
         <v>17.782418</v>
       </c>
       <c r="BA22" s="1">
-        <v>1003.340000</v>
+        <v>1003.34</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.339000</v>
+        <v>-142.339</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>64027.721552</v>
+        <v>64027.721552000003</v>
       </c>
       <c r="BE22" s="1">
-        <v>17.785478</v>
+        <v>17.785478000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1048.790000</v>
+        <v>1048.79</v>
       </c>
       <c r="BG22" s="1">
-        <v>-226.316000</v>
+        <v>-226.316</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>64038.315562</v>
+        <v>64038.315562000003</v>
       </c>
       <c r="BJ22" s="1">
         <v>17.788421</v>
       </c>
       <c r="BK22" s="1">
-        <v>1128.320000</v>
+        <v>1128.32</v>
       </c>
       <c r="BL22" s="1">
-        <v>-360.439000</v>
+        <v>-360.43900000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>64050.097533</v>
@@ -5816,210 +6232,210 @@
         <v>17.791694</v>
       </c>
       <c r="BP22" s="1">
-        <v>1259.210000</v>
+        <v>1259.21</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-567.136000</v>
+        <v>-567.13599999999997</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>64061.398877</v>
       </c>
       <c r="BT22" s="1">
-        <v>17.794833</v>
+        <v>17.794833000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1405.870000</v>
+        <v>1405.87</v>
       </c>
       <c r="BV22" s="1">
-        <v>-787.432000</v>
+        <v>-787.43200000000002</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>64072.723534</v>
+        <v>64072.723533999997</v>
       </c>
       <c r="BY22" s="1">
-        <v>17.797979</v>
+        <v>17.797979000000002</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1565.520000</v>
+        <v>1565.52</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1016.630000</v>
+        <v>-1016.63</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>64085.486660</v>
+        <v>64085.486660000002</v>
       </c>
       <c r="CD22" s="1">
-        <v>17.801524</v>
+        <v>17.801524000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1968.420000</v>
+        <v>1968.42</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1551.240000</v>
+        <v>-1551.24</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>63911.609554</v>
+        <v>63911.609554000002</v>
       </c>
       <c r="B23" s="1">
         <v>17.753225</v>
       </c>
       <c r="C23" s="1">
-        <v>899.116000</v>
+        <v>899.11599999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-196.937000</v>
+        <v>-196.93700000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>63922.054806</v>
       </c>
       <c r="G23" s="1">
-        <v>17.756126</v>
+        <v>17.756125999999998</v>
       </c>
       <c r="H23" s="1">
-        <v>916.288000</v>
+        <v>916.28800000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-167.880000</v>
+        <v>-167.88</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>63932.564039</v>
+        <v>63932.564038999997</v>
       </c>
       <c r="L23" s="1">
-        <v>17.759046</v>
+        <v>17.759046000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>939.629000</v>
+        <v>939.62900000000002</v>
       </c>
       <c r="N23" s="1">
-        <v>-120.178000</v>
+        <v>-120.178</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>63942.804938</v>
+        <v>63942.804938000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>17.761890</v>
+        <v>17.761890000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>946.316000</v>
+        <v>946.31600000000003</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.723000</v>
+        <v>-104.723</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>63953.350380</v>
+        <v>63953.350380000003</v>
       </c>
       <c r="V23" s="1">
-        <v>17.764820</v>
+        <v>17.76482</v>
       </c>
       <c r="W23" s="1">
-        <v>952.909000</v>
+        <v>952.90899999999999</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.690500</v>
+        <v>-90.6905</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>63963.602189</v>
+        <v>63963.602188999997</v>
       </c>
       <c r="AA23" s="1">
-        <v>17.767667</v>
+        <v>17.767666999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>960.215000</v>
+        <v>960.21500000000003</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.865600</v>
+        <v>-80.865600000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>63973.746637</v>
+        <v>63973.746636999997</v>
       </c>
       <c r="AF23" s="1">
-        <v>17.770485</v>
+        <v>17.770485000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>965.251000</v>
+        <v>965.25099999999998</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.188200</v>
+        <v>-80.188199999999995</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>63983.645714</v>
+        <v>63983.645713999998</v>
       </c>
       <c r="AK23" s="1">
         <v>17.773235</v>
       </c>
       <c r="AL23" s="1">
-        <v>973.148000</v>
+        <v>973.14800000000002</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.684100</v>
+        <v>-87.684100000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>63994.562966</v>
+        <v>63994.562965999998</v>
       </c>
       <c r="AP23" s="1">
-        <v>17.776267</v>
+        <v>17.776267000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>982.319000</v>
+        <v>982.31899999999996</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.409000</v>
+        <v>-102.40900000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>64005.697158</v>
+        <v>64005.697158000003</v>
       </c>
       <c r="AU23" s="1">
-        <v>17.779360</v>
+        <v>17.77936</v>
       </c>
       <c r="AV23" s="1">
-        <v>993.711000</v>
+        <v>993.71100000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.752000</v>
+        <v>-123.752</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>64017.001976</v>
@@ -6028,724 +6444,724 @@
         <v>17.782501</v>
       </c>
       <c r="BA23" s="1">
-        <v>1003.350000</v>
+        <v>1003.35</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.315000</v>
+        <v>-142.315</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>64028.006713</v>
+        <v>64028.006713000002</v>
       </c>
       <c r="BE23" s="1">
-        <v>17.785557</v>
+        <v>17.785557000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1048.770000</v>
+        <v>1048.77</v>
       </c>
       <c r="BG23" s="1">
-        <v>-226.334000</v>
+        <v>-226.334</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>64038.691530</v>
+        <v>64038.691529999996</v>
       </c>
       <c r="BJ23" s="1">
         <v>17.788525</v>
       </c>
       <c r="BK23" s="1">
-        <v>1128.330000</v>
+        <v>1128.33</v>
       </c>
       <c r="BL23" s="1">
-        <v>-360.469000</v>
+        <v>-360.46899999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>64050.515658</v>
+        <v>64050.515657999997</v>
       </c>
       <c r="BO23" s="1">
-        <v>17.791810</v>
+        <v>17.791810000000002</v>
       </c>
       <c r="BP23" s="1">
-        <v>1259.170000</v>
+        <v>1259.17</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-567.061000</v>
+        <v>-567.06100000000004</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>64061.816012</v>
+        <v>64061.816012000003</v>
       </c>
       <c r="BT23" s="1">
-        <v>17.794949</v>
+        <v>17.794948999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1405.910000</v>
+        <v>1405.91</v>
       </c>
       <c r="BV23" s="1">
-        <v>-787.619000</v>
+        <v>-787.61900000000003</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>64073.172945</v>
+        <v>64073.172944999998</v>
       </c>
       <c r="BY23" s="1">
-        <v>17.798104</v>
+        <v>17.798103999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1565.580000</v>
+        <v>1565.58</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1016.680000</v>
+        <v>-1016.68</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>64086.024747</v>
+        <v>64086.024747000003</v>
       </c>
       <c r="CD23" s="1">
-        <v>17.801674</v>
+        <v>17.801673999999998</v>
       </c>
       <c r="CE23" s="1">
-        <v>1967.040000</v>
+        <v>1967.04</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1552.820000</v>
+        <v>-1552.82</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>63912.257826</v>
+        <v>63912.257826000001</v>
       </c>
       <c r="B24" s="1">
-        <v>17.753405</v>
+        <v>17.753405000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>898.962000</v>
+        <v>898.96199999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-196.912000</v>
+        <v>-196.91200000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>63922.711011</v>
+        <v>63922.711010999999</v>
       </c>
       <c r="G24" s="1">
-        <v>17.756309</v>
+        <v>17.756309000000002</v>
       </c>
       <c r="H24" s="1">
-        <v>916.136000</v>
+        <v>916.13599999999997</v>
       </c>
       <c r="I24" s="1">
-        <v>-167.200000</v>
+        <v>-167.2</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>63932.935046</v>
+        <v>63932.935045999999</v>
       </c>
       <c r="L24" s="1">
-        <v>17.759149</v>
+        <v>17.759149000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>939.459000</v>
+        <v>939.45899999999995</v>
       </c>
       <c r="N24" s="1">
-        <v>-120.287000</v>
+        <v>-120.28700000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>63943.194794</v>
+        <v>63943.194794000003</v>
       </c>
       <c r="Q24" s="1">
-        <v>17.761999</v>
+        <v>17.761998999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>946.343000</v>
+        <v>946.34299999999996</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.742000</v>
+        <v>-104.742</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>63953.693144</v>
+        <v>63953.693143999997</v>
       </c>
       <c r="V24" s="1">
-        <v>17.764915</v>
+        <v>17.764914999999998</v>
       </c>
       <c r="W24" s="1">
-        <v>952.929000</v>
+        <v>952.92899999999997</v>
       </c>
       <c r="X24" s="1">
-        <v>-90.756600</v>
+        <v>-90.756600000000006</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>63963.953358</v>
+        <v>63963.953357999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>17.767765</v>
+        <v>17.767765000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>960.236000</v>
+        <v>960.23599999999999</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.852200</v>
+        <v>-80.852199999999996</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>63974.089636</v>
+        <v>63974.089635999997</v>
       </c>
       <c r="AF24" s="1">
-        <v>17.770580</v>
+        <v>17.770579999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>965.276000</v>
+        <v>965.27599999999995</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.237200</v>
+        <v>-80.237200000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>63984.077077</v>
+        <v>63984.077077000002</v>
       </c>
       <c r="AK24" s="1">
-        <v>17.773355</v>
+        <v>17.773354999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>973.171000</v>
+        <v>973.17100000000005</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.724700</v>
+        <v>-87.724699999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>63994.992500</v>
+        <v>63994.9925</v>
       </c>
       <c r="AP24" s="1">
         <v>17.776387</v>
       </c>
       <c r="AQ24" s="1">
-        <v>982.317000</v>
+        <v>982.31700000000001</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.406000</v>
+        <v>-102.40600000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>64006.008150</v>
+        <v>64006.008150000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>17.779447</v>
+        <v>17.779447000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>993.712000</v>
+        <v>993.71199999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.760000</v>
+        <v>-123.76</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>64017.360584</v>
+        <v>64017.360584000002</v>
       </c>
       <c r="AZ24" s="1">
-        <v>17.782600</v>
+        <v>17.782599999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1003.340000</v>
+        <v>1003.34</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.357000</v>
+        <v>-142.357</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>64028.372297</v>
+        <v>64028.372297000002</v>
       </c>
       <c r="BE24" s="1">
-        <v>17.785659</v>
+        <v>17.785658999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1048.790000</v>
+        <v>1048.79</v>
       </c>
       <c r="BG24" s="1">
-        <v>-226.298000</v>
+        <v>-226.298</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>64039.056596</v>
+        <v>64039.056596000002</v>
       </c>
       <c r="BJ24" s="1">
-        <v>17.788627</v>
+        <v>17.788627000000002</v>
       </c>
       <c r="BK24" s="1">
-        <v>1128.300000</v>
+        <v>1128.3</v>
       </c>
       <c r="BL24" s="1">
-        <v>-360.508000</v>
+        <v>-360.50799999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>64051.331081</v>
+        <v>64051.331080999997</v>
       </c>
       <c r="BO24" s="1">
         <v>17.792036</v>
       </c>
       <c r="BP24" s="1">
-        <v>1259.200000</v>
+        <v>1259.2</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-567.125000</v>
+        <v>-567.125</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>64062.665659</v>
+        <v>64062.665658999998</v>
       </c>
       <c r="BT24" s="1">
         <v>17.795185</v>
       </c>
       <c r="BU24" s="1">
-        <v>1405.760000</v>
+        <v>1405.76</v>
       </c>
       <c r="BV24" s="1">
-        <v>-787.629000</v>
+        <v>-787.62900000000002</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>64073.600461</v>
+        <v>64073.600461000002</v>
       </c>
       <c r="BY24" s="1">
-        <v>17.798222</v>
+        <v>17.798221999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1565.670000</v>
+        <v>1565.67</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1016.640000</v>
+        <v>-1016.64</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>64086.566875</v>
+        <v>64086.566874999997</v>
       </c>
       <c r="CD24" s="1">
         <v>17.801824</v>
       </c>
       <c r="CE24" s="1">
-        <v>1969.130000</v>
+        <v>1969.13</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1552.380000</v>
+        <v>-1552.38</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>63912.624368</v>
+        <v>63912.624367999997</v>
       </c>
       <c r="B25" s="1">
-        <v>17.753507</v>
+        <v>17.753506999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>899.101000</v>
+        <v>899.101</v>
       </c>
       <c r="D25" s="1">
-        <v>-196.910000</v>
+        <v>-196.91</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>63923.086034</v>
       </c>
       <c r="G25" s="1">
-        <v>17.756413</v>
+        <v>17.756412999999998</v>
       </c>
       <c r="H25" s="1">
-        <v>916.547000</v>
+        <v>916.54700000000003</v>
       </c>
       <c r="I25" s="1">
-        <v>-167.722000</v>
+        <v>-167.72200000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>63933.281253</v>
+        <v>63933.281253000001</v>
       </c>
       <c r="L25" s="1">
         <v>17.759245</v>
       </c>
       <c r="M25" s="1">
-        <v>939.610000</v>
+        <v>939.61</v>
       </c>
       <c r="N25" s="1">
-        <v>-120.105000</v>
+        <v>-120.105</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>63943.549432</v>
       </c>
       <c r="Q25" s="1">
-        <v>17.762097</v>
+        <v>17.762097000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>946.343000</v>
+        <v>946.34299999999996</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.789000</v>
+        <v>-104.789</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>63954.040314</v>
+        <v>63954.040313999998</v>
       </c>
       <c r="V25" s="1">
-        <v>17.765011</v>
+        <v>17.765011000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>952.961000</v>
+        <v>952.96100000000001</v>
       </c>
       <c r="X25" s="1">
-        <v>-90.740600</v>
+        <v>-90.740600000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>63964.372972</v>
+        <v>63964.372971999997</v>
       </c>
       <c r="AA25" s="1">
-        <v>17.767881</v>
+        <v>17.767880999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>960.265000</v>
+        <v>960.26499999999999</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.923300</v>
+        <v>-80.923299999999998</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>63974.516159</v>
+        <v>63974.516158999999</v>
       </c>
       <c r="AF25" s="1">
         <v>17.770699</v>
       </c>
       <c r="AG25" s="1">
-        <v>965.275000</v>
+        <v>965.27499999999998</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.199400</v>
+        <v>-80.199399999999997</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>63984.352819</v>
       </c>
       <c r="AK25" s="1">
-        <v>17.773431</v>
+        <v>17.773430999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>973.175000</v>
+        <v>973.17499999999995</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.692000</v>
+        <v>-87.691999999999993</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>63995.282659</v>
+        <v>63995.282658999997</v>
       </c>
       <c r="AP25" s="1">
         <v>17.776467</v>
       </c>
       <c r="AQ25" s="1">
-        <v>982.334000</v>
+        <v>982.33399999999995</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.412000</v>
+        <v>-102.41200000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>64006.373205</v>
+        <v>64006.373205000004</v>
       </c>
       <c r="AU25" s="1">
-        <v>17.779548</v>
+        <v>17.779547999999998</v>
       </c>
       <c r="AV25" s="1">
-        <v>993.713000</v>
+        <v>993.71299999999997</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.753000</v>
+        <v>-123.753</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>64017.719718</v>
       </c>
       <c r="AZ25" s="1">
-        <v>17.782700</v>
+        <v>17.782699999999998</v>
       </c>
       <c r="BA25" s="1">
-        <v>1003.340000</v>
+        <v>1003.34</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.331000</v>
+        <v>-142.33099999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>64028.986311</v>
+        <v>64028.986311000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>17.785830</v>
+        <v>17.785830000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1048.790000</v>
+        <v>1048.79</v>
       </c>
       <c r="BG25" s="1">
-        <v>-226.322000</v>
+        <v>-226.322</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>64039.815962</v>
+        <v>64039.815962000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>17.788838</v>
+        <v>17.788837999999998</v>
       </c>
       <c r="BK25" s="1">
-        <v>1128.240000</v>
+        <v>1128.24</v>
       </c>
       <c r="BL25" s="1">
-        <v>-360.465000</v>
+        <v>-360.46499999999997</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>64051.748249</v>
+        <v>64051.748248999997</v>
       </c>
       <c r="BO25" s="1">
-        <v>17.792152</v>
+        <v>17.792152000000002</v>
       </c>
       <c r="BP25" s="1">
-        <v>1259.150000</v>
+        <v>1259.1500000000001</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-567.109000</v>
+        <v>-567.10900000000004</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>64063.100683</v>
+        <v>64063.100682999997</v>
       </c>
       <c r="BT25" s="1">
         <v>17.795306</v>
       </c>
       <c r="BU25" s="1">
-        <v>1405.680000</v>
+        <v>1405.68</v>
       </c>
       <c r="BV25" s="1">
-        <v>-787.726000</v>
+        <v>-787.726</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>64074.022061</v>
+        <v>64074.022061000003</v>
       </c>
       <c r="BY25" s="1">
-        <v>17.798339</v>
+        <v>17.798338999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1565.640000</v>
+        <v>1565.64</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1016.620000</v>
+        <v>-1016.62</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>64087.414042</v>
+        <v>64087.414041999997</v>
       </c>
       <c r="CD25" s="1">
         <v>17.802059</v>
       </c>
       <c r="CE25" s="1">
-        <v>1967.390000</v>
+        <v>1967.39</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1553.060000</v>
+        <v>-1553.06</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>63912.971568</v>
+        <v>63912.971568000001</v>
       </c>
       <c r="B26" s="1">
-        <v>17.753603</v>
+        <v>17.753602999999998</v>
       </c>
       <c r="C26" s="1">
-        <v>899.103000</v>
+        <v>899.10299999999995</v>
       </c>
       <c r="D26" s="1">
-        <v>-197.009000</v>
+        <v>-197.00899999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>63923.435184</v>
+        <v>63923.435184000002</v>
       </c>
       <c r="G26" s="1">
-        <v>17.756510</v>
+        <v>17.756509999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>916.249000</v>
+        <v>916.24900000000002</v>
       </c>
       <c r="I26" s="1">
-        <v>-167.252000</v>
+        <v>-167.25200000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>63933.626994</v>
+        <v>63933.626993999998</v>
       </c>
       <c r="L26" s="1">
-        <v>17.759341</v>
+        <v>17.759340999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>939.511000</v>
+        <v>939.51099999999997</v>
       </c>
       <c r="N26" s="1">
-        <v>-120.230000</v>
+        <v>-120.23</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>63943.895143</v>
+        <v>63943.895143000002</v>
       </c>
       <c r="Q26" s="1">
         <v>17.762193</v>
       </c>
       <c r="R26" s="1">
-        <v>946.277000</v>
+        <v>946.27700000000004</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.754000</v>
+        <v>-104.754</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>63954.453978</v>
+        <v>63954.453977999998</v>
       </c>
       <c r="V26" s="1">
-        <v>17.765126</v>
+        <v>17.765125999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>952.997000</v>
+        <v>952.99699999999996</v>
       </c>
       <c r="X26" s="1">
-        <v>-90.758400</v>
+        <v>-90.758399999999995</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>63964.647469</v>
+        <v>63964.647469000003</v>
       </c>
       <c r="AA26" s="1">
         <v>17.767958</v>
       </c>
       <c r="AB26" s="1">
-        <v>960.279000</v>
+        <v>960.279</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.868100</v>
+        <v>-80.868099999999998</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>63974.787966</v>
+        <v>63974.787966000004</v>
       </c>
       <c r="AF26" s="1">
-        <v>17.770774</v>
+        <v>17.770773999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>965.242000</v>
+        <v>965.24199999999996</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.225600</v>
+        <v>-80.2256</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>63984.703491</v>
@@ -6754,150 +7170,151 @@
         <v>17.773529</v>
       </c>
       <c r="AL26" s="1">
-        <v>973.182000</v>
+        <v>973.18200000000002</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.685600</v>
+        <v>-87.685599999999994</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>63995.641268</v>
+        <v>63995.641267999999</v>
       </c>
       <c r="AP26" s="1">
         <v>17.776567</v>
       </c>
       <c r="AQ26" s="1">
-        <v>982.308000</v>
+        <v>982.30799999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.420000</v>
+        <v>-102.42</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>64006.737765</v>
+        <v>64006.737764999998</v>
       </c>
       <c r="AU26" s="1">
-        <v>17.779649</v>
+        <v>17.779648999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>993.707000</v>
+        <v>993.70699999999999</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.752000</v>
+        <v>-123.752</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>64018.442649</v>
+        <v>64018.442648999997</v>
       </c>
       <c r="AZ26" s="1">
-        <v>17.782901</v>
+        <v>17.782900999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1003.330000</v>
+        <v>1003.33</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.334000</v>
+        <v>-142.334</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>64029.095959</v>
+        <v>64029.095958999998</v>
       </c>
       <c r="BE26" s="1">
-        <v>17.785860</v>
+        <v>17.78586</v>
       </c>
       <c r="BF26" s="1">
-        <v>1048.780000</v>
+        <v>1048.78</v>
       </c>
       <c r="BG26" s="1">
-        <v>-226.316000</v>
+        <v>-226.316</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>64040.192921</v>
+        <v>64040.192921000002</v>
       </c>
       <c r="BJ26" s="1">
-        <v>17.788942</v>
+        <v>17.788941999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1128.310000</v>
+        <v>1128.31</v>
       </c>
       <c r="BL26" s="1">
-        <v>-360.454000</v>
+        <v>-360.45400000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>64052.147041</v>
+        <v>64052.147040999997</v>
       </c>
       <c r="BO26" s="1">
-        <v>17.792263</v>
+        <v>17.792262999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1259.180000</v>
+        <v>1259.18</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-567.086000</v>
+        <v>-567.08600000000001</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>64063.827320</v>
+        <v>64063.827319999997</v>
       </c>
       <c r="BT26" s="1">
-        <v>17.795508</v>
+        <v>17.795508000000002</v>
       </c>
       <c r="BU26" s="1">
-        <v>1405.500000</v>
+        <v>1405.5</v>
       </c>
       <c r="BV26" s="1">
-        <v>-787.787000</v>
+        <v>-787.78700000000003</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>64074.754663</v>
       </c>
       <c r="BY26" s="1">
-        <v>17.798543</v>
+        <v>17.798542999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1565.630000</v>
+        <v>1565.63</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1016.730000</v>
+        <v>-1016.73</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>64087.646169</v>
       </c>
       <c r="CD26" s="1">
-        <v>17.802124</v>
+        <v>17.802123999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1967.200000</v>
+        <v>1967.2</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1553.410000</v>
+        <v>-1553.41</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>